--- a/Crypto/HOOD.xlsx
+++ b/Crypto/HOOD.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simon\Documents\models\Crypto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08876819-6F01-4C09-A27C-EA7C3A7827F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE427BFA-56A9-4FC1-A35A-70BCB4A03055}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="717" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,21 @@
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
     <sheet name="Analysts" sheetId="7" r:id="rId3"/>
-    <sheet name="Model-graph" sheetId="3" r:id="rId4"/>
-    <sheet name="KPIs" sheetId="6" r:id="rId5"/>
+    <sheet name="KPIs" sheetId="6" r:id="rId4"/>
+    <sheet name="Model-graph" sheetId="3" r:id="rId5"/>
     <sheet name="Catalysts" sheetId="4" r:id="rId6"/>
     <sheet name="DoR" sheetId="5" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$10</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$10:$Z$10</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$11:$Z$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Model!$B$25</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Model!$B$26</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Model!$N$25:$Z$25</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Model!$N$26:$Z$26</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Model!$N$2:$Z$2</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$25</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$26</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$25:$Z$25</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$26:$Z$26</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Model!$B$10</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Model!$B$11</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Model!$N$10:$Z$10</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Model!$N$11:$Z$11</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Model!$N$2:$Z$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -322,7 +319,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="252">
   <si>
     <t>Price</t>
   </si>
@@ -550,9 +547,6 @@
   </si>
   <si>
     <t>Equity</t>
-  </si>
-  <si>
-    <t>Interest Rate debt</t>
   </si>
   <si>
     <t>RG1</t>
@@ -1066,6 +1060,21 @@
   </si>
   <si>
     <t>(SUM) Transaction-based</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Q126</t>
+  </si>
+  <si>
+    <t>Q226</t>
+  </si>
+  <si>
+    <t>Cash y/y</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1824,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1968,6 +1977,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1994,6 +2013,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2026,30 +2048,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="6" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3042,6 +3052,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3049,7 +3060,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3385,6 +3395,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3392,7 +3403,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3938,6 +3948,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3945,7 +3956,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4329,10 +4339,10 @@
                   <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>925</c:v>
+                  <c:v>927</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>931.27</c:v>
+                  <c:v>989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4482,10 +4492,10 @@
                   <c:v>1.1528662420382165</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.49676375404530737</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.36549853372434016</c:v>
+                  <c:v>0.45014662756598245</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,6 +4715,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4712,7 +4723,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -5013,7 +5023,7 @@
                   <c:v>2951</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3710</c:v>
+                  <c:v>4470</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5151,7 +5161,7 @@
                   <c:v>0.58230563002680968</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.25720094883090483</c:v>
+                  <c:v>0.5147407658420875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,6 +5381,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5378,7 +5389,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6066,6 +6076,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6073,7 +6084,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6316,7 +6326,7 @@
                   <c:v>1411</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1470.1499999999999</c:v>
+                  <c:v>1790.9099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6443,7 +6453,7 @@
                   <c:v>-3.6081330868761552</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.9661928844790824E-2</c:v>
+                  <c:v>0.29086089513819968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6663,6 +6673,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -6670,7 +6681,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7435,6 +7445,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -7442,7 +7453,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -8174,6 +8184,7 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -8181,7 +8192,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9343,6 +9353,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -9350,7 +9361,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -9390,18 +9400,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.8</cx:f>
+        <cx:f dir="row">_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.9</cx:f>
+        <cx:f dir="row">_xlchart.v1.4</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.7</cx:f>
+        <cx:f dir="row">_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9445,7 +9455,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.1</cx:f>
               <cx:v>EPS exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9465,7 +9475,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.5</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>EPS</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9496,18 +9506,18 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.3</cx:f>
+        <cx:f dir="row">_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f dir="row">_xlchart.v1.4</cx:f>
+        <cx:f dir="row">_xlchart.v1.9</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f dir="row">_xlchart.v1.2</cx:f>
+        <cx:f dir="row">_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -9551,7 +9561,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{006F4749-938E-4621-8334-C74E7B83CC40}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.1</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>Rev. Exp.</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9571,7 +9581,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C8A70830-D21B-405F-8F13-72F0AC678416}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.5</cx:f>
               <cx:v>Revenue</cx:v>
             </cx:txData>
           </cx:tx>
@@ -16791,182 +16801,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Main"/>
-      <sheetName val="Model"/>
-      <sheetName val="Analysts"/>
-      <sheetName val="Model-graph"/>
-      <sheetName val="KPIs"/>
-      <sheetName val="Catalysts"/>
-      <sheetName val="DoR"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1">
-            <v>45413</v>
-          </cell>
-          <cell r="C1">
-            <v>45444</v>
-          </cell>
-          <cell r="D1">
-            <v>45474</v>
-          </cell>
-          <cell r="E1">
-            <v>45505</v>
-          </cell>
-          <cell r="F1">
-            <v>45536</v>
-          </cell>
-          <cell r="G1">
-            <v>45566</v>
-          </cell>
-          <cell r="H1">
-            <v>45597</v>
-          </cell>
-          <cell r="I1">
-            <v>45627</v>
-          </cell>
-          <cell r="J1">
-            <v>45658</v>
-          </cell>
-          <cell r="K1">
-            <v>45689</v>
-          </cell>
-          <cell r="L1">
-            <v>45717</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Sell</v>
-          </cell>
-          <cell r="I2">
-            <v>1</v>
-          </cell>
-          <cell r="J2">
-            <v>1</v>
-          </cell>
-          <cell r="K2">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>Underperform</v>
-          </cell>
-          <cell r="I3">
-            <v>1</v>
-          </cell>
-          <cell r="J3">
-            <v>1</v>
-          </cell>
-          <cell r="K3">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Hold</v>
-          </cell>
-          <cell r="I4">
-            <v>3</v>
-          </cell>
-          <cell r="J4">
-            <v>3</v>
-          </cell>
-          <cell r="K4">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>Buy</v>
-          </cell>
-          <cell r="I5">
-            <v>3</v>
-          </cell>
-          <cell r="J5">
-            <v>3</v>
-          </cell>
-          <cell r="K5">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Strong buy</v>
-          </cell>
-          <cell r="I6">
-            <v>2</v>
-          </cell>
-          <cell r="J6">
-            <v>2</v>
-          </cell>
-          <cell r="K6">
-            <v>2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>Goldman Sachs</v>
-          </cell>
-          <cell r="I10">
-            <v>80</v>
-          </cell>
-          <cell r="J10">
-            <v>80</v>
-          </cell>
-          <cell r="K10">
-            <v>80</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>Wells Fargo</v>
-          </cell>
-          <cell r="I11">
-            <v>90</v>
-          </cell>
-          <cell r="J11">
-            <v>90</v>
-          </cell>
-          <cell r="K11">
-            <v>90</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>TD Cowen</v>
-          </cell>
-          <cell r="I12">
-            <v>40</v>
-          </cell>
-          <cell r="J12">
-            <v>40</v>
-          </cell>
-          <cell r="K12">
-            <v>60</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -17233,7 +17067,7 @@
   <dimension ref="B2:N41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17254,7 +17088,7 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C2" s="19"/>
       <c r="E2" s="24" t="s">
@@ -17288,52 +17122,52 @@
         <v>42</v>
       </c>
       <c r="C3" s="20">
-        <v>45707</v>
+        <v>45967</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="F3" s="28" t="s">
-        <v>153</v>
-      </c>
       <c r="H3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I3" s="10">
         <v>81817</v>
       </c>
       <c r="J3" s="38"/>
       <c r="L3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="M3" t="s">
         <v>132</v>
-      </c>
-      <c r="M3" t="s">
-        <v>133</v>
       </c>
       <c r="N3" s="37"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="21">
-        <v>0.93125000000000002</v>
+        <v>0.71666666666666667</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="28" t="s">
-        <v>155</v>
-      </c>
       <c r="H4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I4" s="10">
         <v>867495</v>
       </c>
       <c r="J4" s="38"/>
       <c r="L4" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M4" t="s">
         <v>134</v>
-      </c>
-      <c r="M4" t="s">
-        <v>135</v>
       </c>
       <c r="N4" s="13"/>
     </row>
@@ -17341,23 +17175,23 @@
       <c r="B5" s="5"/>
       <c r="C5" s="13"/>
       <c r="E5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="28" t="s">
-        <v>157</v>
-      </c>
       <c r="H5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I5" s="10">
         <v>43731000</v>
       </c>
       <c r="J5" s="38"/>
       <c r="L5" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="M5" t="s">
         <v>136</v>
-      </c>
-      <c r="M5" t="s">
-        <v>137</v>
       </c>
       <c r="N5" s="13"/>
     </row>
@@ -17366,26 +17200,26 @@
         <v>0</v>
       </c>
       <c r="C6" s="13">
-        <v>59.54</v>
+        <v>129.86000000000001</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="F6" s="28" t="s">
-        <v>159</v>
-      </c>
       <c r="H6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I6" s="10">
         <v>423647</v>
       </c>
       <c r="J6" s="38"/>
       <c r="L6" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="M6" t="s">
         <v>138</v>
-      </c>
-      <c r="M6" t="s">
-        <v>139</v>
       </c>
       <c r="N6" s="13"/>
     </row>
@@ -17398,23 +17232,23 @@
         <v>890.85765900000001</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="F7" s="28" t="s">
-        <v>161</v>
-      </c>
       <c r="H7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I7" s="10">
         <v>14524</v>
       </c>
       <c r="J7" s="38"/>
       <c r="L7" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="M7" t="s">
         <v>140</v>
-      </c>
-      <c r="M7" t="s">
-        <v>141</v>
       </c>
       <c r="N7" s="13"/>
     </row>
@@ -17424,26 +17258,26 @@
       </c>
       <c r="C8" s="15">
         <f>C6*C7</f>
-        <v>53041.665016860003</v>
+        <v>115686.77559774001</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F8" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="F8" s="28" t="s">
-        <v>163</v>
-      </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" s="10">
         <v>39491</v>
       </c>
       <c r="J8" s="38"/>
       <c r="L8" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="M8" t="s">
         <v>142</v>
-      </c>
-      <c r="M8" t="s">
-        <v>143</v>
       </c>
       <c r="N8" s="13"/>
     </row>
@@ -17452,27 +17286,27 @@
         <v>3</v>
       </c>
       <c r="C9" s="15">
-        <f>Model!G41+Model!G42</f>
-        <v>9283</v>
+        <f>Model!AF41+Model!AF42</f>
+        <v>12774</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="F9" s="28" t="s">
-        <v>165</v>
-      </c>
       <c r="H9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I9" s="10">
         <v>56204</v>
       </c>
       <c r="J9" s="38"/>
       <c r="L9" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="M9" t="s">
         <v>144</v>
-      </c>
-      <c r="M9" t="s">
-        <v>145</v>
       </c>
       <c r="N9" s="13"/>
     </row>
@@ -17484,23 +17318,23 @@
         <v>0</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="28" t="s">
-        <v>167</v>
-      </c>
       <c r="H10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I10" s="10">
         <v>997407</v>
       </c>
       <c r="J10" s="38"/>
       <c r="L10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="M10" t="s">
         <v>146</v>
-      </c>
-      <c r="M10" t="s">
-        <v>147</v>
       </c>
       <c r="N10" s="13"/>
     </row>
@@ -17510,26 +17344,26 @@
       </c>
       <c r="C11" s="15">
         <f>C9-C10</f>
-        <v>9283</v>
+        <v>12774</v>
       </c>
       <c r="E11" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="F11" s="28" t="s">
-        <v>169</v>
-      </c>
       <c r="H11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I11">
         <v>71818</v>
       </c>
       <c r="J11" s="38"/>
       <c r="L11" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" t="s">
         <v>148</v>
-      </c>
-      <c r="M11" t="s">
-        <v>149</v>
       </c>
       <c r="N11" s="13"/>
     </row>
@@ -17539,20 +17373,20 @@
       </c>
       <c r="C12" s="15">
         <f>C8-C9+C10</f>
-        <v>43758.665016860003</v>
+        <v>102912.77559774001</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="F12" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="J12" s="13"/>
       <c r="L12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="M12" t="s">
         <v>150</v>
-      </c>
-      <c r="M12" t="s">
-        <v>151</v>
       </c>
       <c r="N12" s="13"/>
     </row>
@@ -17562,7 +17396,7 @@
       </c>
       <c r="C13" s="36">
         <f>C6/Model!H25</f>
-        <v>38.23774014752658</v>
+        <v>83.398604896839132</v>
       </c>
       <c r="E13" s="5"/>
       <c r="J13" s="13"/>
@@ -17575,7 +17409,7 @@
       </c>
       <c r="C14" s="36">
         <f>C6/Model!I26</f>
-        <v>36.084848484848486</v>
+        <v>64.606965174129371</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="29"/>
@@ -17593,7 +17427,7 @@
       </c>
       <c r="C15" s="36">
         <f>C6/Model!J26</f>
-        <v>33.638418079096041</v>
+        <v>58.233183856502251</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
@@ -17602,7 +17436,7 @@
       </c>
       <c r="C16" s="6">
         <f>Model!I26/Model!H25-1</f>
-        <v>5.9661928844790824E-2</v>
+        <v>0.29086089513819968</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
@@ -17611,16 +17445,16 @@
       </c>
       <c r="C17" s="6">
         <f>Model!J26/Model!I26-1</f>
-        <v>7.2727272727272751E-2</v>
+        <v>0.10945273631840813</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L17" s="122" t="s">
-        <v>241</v>
-      </c>
-      <c r="M17" s="123"/>
-      <c r="N17" s="124"/>
+      <c r="L17" s="132" t="s">
+        <v>240</v>
+      </c>
+      <c r="M17" s="133"/>
+      <c r="N17" s="134"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
@@ -17628,11 +17462,11 @@
       </c>
       <c r="C18" s="46">
         <f>C14/(C16*100)</f>
-        <v>6.0482202274623758</v>
-      </c>
-      <c r="L18" s="125"/>
-      <c r="M18" s="126"/>
-      <c r="N18" s="127"/>
+        <v>2.22123242601698</v>
+      </c>
+      <c r="L18" s="135"/>
+      <c r="M18" s="136"/>
+      <c r="N18" s="137"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
@@ -17640,44 +17474,44 @@
       </c>
       <c r="C19" s="46">
         <f>C15/(C17*100)</f>
-        <v>4.6252824858757045</v>
-      </c>
-      <c r="L19" s="125"/>
-      <c r="M19" s="126"/>
-      <c r="N19" s="127"/>
+        <v>5.3203954341622426</v>
+      </c>
+      <c r="L19" s="135"/>
+      <c r="M19" s="136"/>
+      <c r="N19" s="137"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="6">
         <f>Model!I11/Model!H10-1</f>
-        <v>0.25720094883090483</v>
-      </c>
-      <c r="L20" s="125"/>
-      <c r="M20" s="126"/>
-      <c r="N20" s="127"/>
+        <v>0.5147407658420875</v>
+      </c>
+      <c r="L20" s="135"/>
+      <c r="M20" s="136"/>
+      <c r="N20" s="137"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="6">
         <f>Model!J11/Model!I11-1</f>
-        <v>8.6253369272237146E-2</v>
-      </c>
-      <c r="L21" s="125"/>
-      <c r="M21" s="126"/>
-      <c r="N21" s="127"/>
+        <v>0.15659955257270686</v>
+      </c>
+      <c r="L21" s="135"/>
+      <c r="M21" s="136"/>
+      <c r="N21" s="137"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C22" s="15"/>
-      <c r="L22" s="125"/>
-      <c r="M22" s="126"/>
-      <c r="N22" s="127"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="5" t="s">
@@ -17687,33 +17521,33 @@
         <f>Model!H18</f>
         <v>1054</v>
       </c>
-      <c r="L23" s="125"/>
-      <c r="M23" s="126"/>
-      <c r="N23" s="127"/>
+      <c r="L23" s="135"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="137"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <f>Model!AC27</f>
-        <v>0.74556213017751483</v>
-      </c>
-      <c r="L24" s="125"/>
-      <c r="M24" s="126"/>
-      <c r="N24" s="127"/>
+        <f>Model!AF27</f>
+        <v>0.77001569858712715</v>
+      </c>
+      <c r="L24" s="135"/>
+      <c r="M24" s="136"/>
+      <c r="N24" s="137"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C25" s="7">
-        <f>Model!H28</f>
-        <v>0.47814300237207724</v>
-      </c>
-      <c r="L25" s="125"/>
-      <c r="M25" s="126"/>
-      <c r="N25" s="127"/>
+        <f>Model!AF28</f>
+        <v>0.43642072213500788</v>
+      </c>
+      <c r="L25" s="135"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="137"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="s">
@@ -17721,15 +17555,15 @@
       </c>
       <c r="C26" s="36">
         <f>C12/C23</f>
-        <v>41.516759978045542</v>
-      </c>
-      <c r="L26" s="125"/>
-      <c r="M26" s="126"/>
-      <c r="N26" s="127"/>
+        <v>97.640204551935497</v>
+      </c>
+      <c r="L26" s="135"/>
+      <c r="M26" s="136"/>
+      <c r="N26" s="137"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C27" s="113">
         <v>0</v>
@@ -17737,75 +17571,75 @@
       <c r="E27" t="s">
         <v>72</v>
       </c>
-      <c r="L27" s="125"/>
-      <c r="M27" s="126"/>
-      <c r="N27" s="127"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="136"/>
+      <c r="N27" s="137"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C28" s="36">
         <v>0</v>
       </c>
-      <c r="L28" s="128"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="130"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C29" s="36">
-        <f>Model!G52/Model!G66</f>
-        <v>1.2444705421804658</v>
+        <f>Model!AF52/Model!AF66</f>
+        <v>1.2202856968439044</v>
       </c>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" s="36">
-        <f>(Model!G41+Model!G42)/Model!G66</f>
-        <v>0.36339792522998632</v>
+        <f>(Model!AF41+Model!AF42)/Model!AF66</f>
+        <v>0.38990293632867346</v>
       </c>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31" s="6"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C32" s="36">
-        <f>(Model!G59-Model!G68)/C7</f>
-        <v>7.5163522840633732</v>
+        <f>(Model!AF59-Model!AF68)/C7</f>
+        <v>9.616575570127079</v>
       </c>
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C33" s="36"/>
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C34" s="38"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C35" s="38"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C36" s="23"/>
     </row>
@@ -17827,31 +17661,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7345E9-1C5F-45F5-BD7C-66FA029FFFF4}">
-  <dimension ref="A1:AE90"/>
+  <dimension ref="A1:AI90"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="O4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="AA3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AC36" sqref="AC36"/>
+      <selection pane="bottomRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="141"/>
     <col min="8" max="8" width="11.42578125" style="13"/>
-    <col min="27" max="27" width="11.42578125" style="141"/>
-    <col min="29" max="29" width="11.42578125" style="13"/>
+    <col min="29" max="29" width="11.42578125" style="152"/>
+    <col min="32" max="32" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>35</v>
       </c>
@@ -17864,7 +17697,7 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="141" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -17874,7 +17707,7 @@
         <v>67</v>
       </c>
       <c r="J2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="N2" t="s">
         <v>34</v>
@@ -17915,25 +17748,37 @@
       <c r="Z2" t="s">
         <v>63</v>
       </c>
-      <c r="AA2" s="141" t="s">
+      <c r="AA2" t="s">
         <v>66</v>
       </c>
       <c r="AB2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AC2" s="152" t="s">
         <v>225</v>
       </c>
-      <c r="AC2" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD2" s="150" t="s">
+      <c r="AD2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE2" t="s">
         <v>229</v>
       </c>
-      <c r="AE2" s="150" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>249</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>163</v>
@@ -17965,21 +17810,28 @@
       <c r="Z3">
         <v>154</v>
       </c>
-      <c r="AA3" s="141">
+      <c r="AA3">
         <v>182</v>
       </c>
-      <c r="AB3" s="150">
+      <c r="AB3">
         <v>202</v>
       </c>
-      <c r="AC3" s="13">
+      <c r="AC3" s="152">
         <v>222</v>
       </c>
-      <c r="AD3" s="150"/>
-      <c r="AE3" s="150"/>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD3" s="162">
+        <v>240</v>
+      </c>
+      <c r="AE3" s="162">
+        <v>265</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>48</v>
@@ -18011,21 +17863,28 @@
       <c r="Z4">
         <v>126</v>
       </c>
-      <c r="AA4" s="141">
+      <c r="AA4">
         <v>81</v>
       </c>
-      <c r="AB4" s="150">
+      <c r="AB4">
         <v>61</v>
       </c>
-      <c r="AC4" s="13">
+      <c r="AC4" s="152">
         <v>358</v>
       </c>
-      <c r="AD4" s="150"/>
-      <c r="AE4" s="150"/>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD4" s="162">
+        <v>252</v>
+      </c>
+      <c r="AE4" s="162">
+        <v>160</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q5">
         <v>52</v>
@@ -18057,19 +17916,26 @@
       <c r="Z5">
         <v>39</v>
       </c>
-      <c r="AA5" s="141">
+      <c r="AA5">
         <v>40</v>
       </c>
-      <c r="AB5" s="150">
+      <c r="AB5">
         <v>37</v>
       </c>
-      <c r="AC5" s="13">
+      <c r="AC5" s="152">
         <v>61</v>
       </c>
-      <c r="AD5" s="150"/>
-      <c r="AE5" s="150"/>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD5" s="162">
+        <v>56</v>
+      </c>
+      <c r="AE5" s="162">
+        <v>66</v>
+      </c>
+      <c r="AF5" s="13">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>25</v>
       </c>
@@ -18103,21 +17969,28 @@
       <c r="Z6">
         <v>10</v>
       </c>
-      <c r="AA6" s="150">
+      <c r="AA6">
         <v>24</v>
       </c>
-      <c r="AB6" s="150">
+      <c r="AB6">
         <v>19</v>
       </c>
-      <c r="AC6" s="13">
+      <c r="AC6" s="152">
         <v>31</v>
       </c>
-      <c r="AD6" s="150"/>
-      <c r="AE6" s="150"/>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD6" s="162">
+        <v>35</v>
+      </c>
+      <c r="AE6" s="162">
+        <v>48</v>
+      </c>
+      <c r="AF6" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C7" s="10">
         <v>170.83099999999999</v>
@@ -18131,7 +18004,7 @@
       <c r="F7" s="10">
         <v>814</v>
       </c>
-      <c r="G7" s="144">
+      <c r="G7" s="10">
         <v>785</v>
       </c>
       <c r="H7" s="15">
@@ -18151,7 +18024,7 @@
         <v>264</v>
       </c>
       <c r="R7" s="40">
-        <f t="shared" ref="R7:AE7" si="0">SUM(R3:R6)</f>
+        <f t="shared" ref="R7:AH7" si="0">SUM(R3:R6)</f>
         <v>218</v>
       </c>
       <c r="S7" s="40">
@@ -18194,22 +18067,34 @@
         <f t="shared" si="0"/>
         <v>319</v>
       </c>
-      <c r="AC7" s="40">
+      <c r="AC7" s="153">
         <f t="shared" si="0"/>
         <v>672</v>
       </c>
       <c r="AD7" s="40">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="AE7" s="40">
         <f t="shared" si="0"/>
+        <v>539</v>
+      </c>
+      <c r="AF7" s="125">
+        <f t="shared" si="0"/>
+        <v>730</v>
+      </c>
+      <c r="AG7" s="40">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AH7" s="40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B8" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="10">
         <v>70.638999999999996</v>
@@ -18223,7 +18108,7 @@
       <c r="F8" s="10">
         <v>424</v>
       </c>
-      <c r="G8" s="144">
+      <c r="G8" s="10">
         <v>929</v>
       </c>
       <c r="H8" s="15">
@@ -18271,18 +18156,27 @@
       <c r="Z8">
         <v>254</v>
       </c>
-      <c r="AA8" s="141">
+      <c r="AA8">
         <v>285</v>
       </c>
-      <c r="AB8" s="150">
+      <c r="AB8">
         <v>274</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="154">
         <f t="shared" ref="AC8:AC9" si="4">H8-AB8-AA8-Z8</f>
         <v>296</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD8" s="162">
+        <v>290</v>
+      </c>
+      <c r="AE8" s="162">
+        <v>357</v>
+      </c>
+      <c r="AF8" s="13">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>25</v>
       </c>
@@ -18298,7 +18192,7 @@
       <c r="F9" s="10">
         <v>120</v>
       </c>
-      <c r="G9" s="144">
+      <c r="G9" s="10">
         <v>151</v>
       </c>
       <c r="H9" s="15">
@@ -18346,125 +18240,152 @@
       <c r="Z9">
         <v>35</v>
       </c>
-      <c r="AA9" s="141">
+      <c r="AA9">
         <v>70</v>
       </c>
-      <c r="AB9" s="150">
+      <c r="AB9">
         <v>44</v>
       </c>
-      <c r="AC9" s="15">
+      <c r="AC9" s="154">
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD9" s="162">
+        <v>54</v>
+      </c>
+      <c r="AE9" s="162">
+        <v>93</v>
+      </c>
+      <c r="AF9" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="11">
-        <f>SUM(C7:C9)</f>
+        <f t="shared" ref="C10:H10" si="5">SUM(C7:C9)</f>
         <v>277.53299999999996</v>
       </c>
       <c r="D10" s="11">
-        <f>SUM(D7:D9)</f>
+        <f t="shared" si="5"/>
         <v>958.83300000000008</v>
       </c>
       <c r="E10" s="11">
-        <f>SUM(E7:E9)</f>
+        <f t="shared" si="5"/>
         <v>1815</v>
       </c>
       <c r="F10" s="11">
-        <f>SUM(F7:F9)</f>
+        <f t="shared" si="5"/>
         <v>1358</v>
       </c>
-      <c r="G10" s="142">
-        <f>SUM(G7:G9)</f>
+      <c r="G10" s="11">
+        <f t="shared" si="5"/>
         <v>1865</v>
       </c>
-      <c r="H10" s="152">
-        <f>SUM(H7:H9)</f>
+      <c r="H10" s="123">
+        <f t="shared" si="5"/>
         <v>2951</v>
       </c>
       <c r="I10" s="43">
-        <v>3710</v>
+        <f>I11</f>
+        <v>4470</v>
       </c>
       <c r="J10" s="43">
-        <v>4030</v>
+        <f>J11</f>
+        <v>5170</v>
       </c>
       <c r="N10" s="11">
         <f>SUM(N7:N9)</f>
         <v>522</v>
       </c>
       <c r="O10" s="11">
-        <f t="shared" ref="O10:AC10" si="5">SUM(O7:O9)</f>
+        <f t="shared" ref="O10:AC10" si="6">SUM(O7:O9)</f>
         <v>565</v>
       </c>
       <c r="P10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>355</v>
       </c>
       <c r="Q10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>373</v>
       </c>
       <c r="R10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>299</v>
       </c>
       <c r="S10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>318</v>
       </c>
       <c r="T10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>361</v>
       </c>
       <c r="U10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>380</v>
       </c>
       <c r="V10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>441</v>
       </c>
       <c r="W10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>486</v>
       </c>
       <c r="X10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>467</v>
       </c>
       <c r="Y10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>471</v>
       </c>
       <c r="Z10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>618</v>
       </c>
-      <c r="AA10" s="142">
-        <f t="shared" si="5"/>
+      <c r="AA10" s="11">
+        <f t="shared" si="6"/>
         <v>682</v>
       </c>
       <c r="AB10" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>637</v>
       </c>
-      <c r="AC10" s="14">
-        <f t="shared" si="5"/>
+      <c r="AC10" s="155">
+        <f>SUM(AC7:AC9)</f>
         <v>1014</v>
       </c>
-      <c r="AD10" s="142">
-        <f>AD11</f>
-        <v>925</v>
-      </c>
-      <c r="AE10" s="142">
-        <f>AE11</f>
-        <v>931.27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD10" s="155">
+        <f t="shared" ref="AD10:AI10" si="7">SUM(AD7:AD9)</f>
+        <v>927</v>
+      </c>
+      <c r="AE10" s="155">
+        <f t="shared" si="7"/>
+        <v>989</v>
+      </c>
+      <c r="AF10" s="14">
+        <f t="shared" si="7"/>
+        <v>1274</v>
+      </c>
+      <c r="AG10" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="155">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>65</v>
       </c>
@@ -18472,15 +18393,15 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
-      <c r="G11" s="144"/>
-      <c r="H11" s="153">
+      <c r="G11" s="10"/>
+      <c r="H11" s="124">
         <v>2620</v>
       </c>
       <c r="I11" s="42">
-        <v>3710</v>
+        <v>4470</v>
       </c>
       <c r="J11">
-        <v>4030</v>
+        <v>5170</v>
       </c>
       <c r="N11" s="40"/>
       <c r="O11" s="40"/>
@@ -18497,13 +18418,13 @@
       <c r="Z11" s="119">
         <v>548.61</v>
       </c>
-      <c r="AA11" s="143">
+      <c r="AA11" s="122">
         <v>595.92999999999995</v>
       </c>
       <c r="AB11">
         <v>650.86</v>
       </c>
-      <c r="AC11" s="13">
+      <c r="AC11" s="152">
         <v>642.91</v>
       </c>
       <c r="AD11">
@@ -18512,10 +18433,16 @@
       <c r="AE11">
         <v>931.27</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AG11" s="162">
+        <v>1280</v>
+      </c>
+      <c r="AH11" s="162">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C12" s="10">
         <v>45.459000000000003</v>
@@ -18529,7 +18456,7 @@
       <c r="F12" s="10">
         <v>179</v>
       </c>
-      <c r="G12" s="144">
+      <c r="G12" s="10">
         <v>146</v>
       </c>
       <c r="H12" s="15">
@@ -18546,7 +18473,7 @@
         <v>44</v>
       </c>
       <c r="Q12" s="10">
-        <f t="shared" ref="Q12:Q13" si="6">E12-P12-O12-N12</f>
+        <f t="shared" ref="Q12:Q13" si="8">E12-P12-O12-N12</f>
         <v>35</v>
       </c>
       <c r="R12" s="10">
@@ -18559,7 +18486,7 @@
         <v>33</v>
       </c>
       <c r="U12" s="10">
-        <f t="shared" ref="U12:U13" si="7">F12-T12-S12-R12</f>
+        <f t="shared" ref="U12:U13" si="9">F12-T12-S12-R12</f>
         <v>85</v>
       </c>
       <c r="V12" s="10">
@@ -18572,26 +18499,35 @@
         <v>39</v>
       </c>
       <c r="Y12" s="10">
-        <f t="shared" ref="Y12:Y13" si="8">G12-X12-W12-V12</f>
+        <f t="shared" ref="Y12:Y13" si="10">G12-X12-W12-V12</f>
         <v>32</v>
       </c>
       <c r="Z12" s="10">
         <v>35</v>
       </c>
-      <c r="AA12" s="144">
+      <c r="AA12" s="10">
         <v>40</v>
       </c>
-      <c r="AB12" s="151">
+      <c r="AB12" s="10">
         <v>39</v>
       </c>
-      <c r="AC12" s="15">
-        <f t="shared" ref="AC12:AC13" si="9">H12-AB12-AA12-Z12</f>
+      <c r="AC12" s="154">
+        <f t="shared" ref="AC12:AC13" si="11">H12-AB12-AA12-Z12</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD12" s="161">
+        <v>50</v>
+      </c>
+      <c r="AE12" s="161">
+        <v>48</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C13" s="10">
         <v>94.932000000000002</v>
@@ -18605,7 +18541,7 @@
       <c r="F13" s="10">
         <v>878</v>
       </c>
-      <c r="G13" s="144">
+      <c r="G13" s="10">
         <v>805</v>
       </c>
       <c r="H13" s="15">
@@ -18622,7 +18558,7 @@
         <v>679</v>
       </c>
       <c r="Q13" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
       <c r="R13" s="10">
@@ -18635,7 +18571,7 @@
         <v>185</v>
       </c>
       <c r="U13" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>180</v>
       </c>
       <c r="V13" s="10">
@@ -18648,65 +18584,74 @@
         <v>202</v>
       </c>
       <c r="Y13" s="10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>197</v>
       </c>
       <c r="Z13" s="10">
         <v>196</v>
       </c>
-      <c r="AA13" s="144">
+      <c r="AA13" s="10">
         <v>209</v>
       </c>
-      <c r="AB13" s="151">
+      <c r="AB13" s="10">
         <v>205</v>
       </c>
-      <c r="AC13" s="15">
-        <f t="shared" si="9"/>
+      <c r="AC13" s="154">
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD13" s="161">
+        <v>214</v>
+      </c>
+      <c r="AE13" s="161">
+        <v>214</v>
+      </c>
+      <c r="AF13" s="13">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="11">
-        <f t="shared" ref="C14:J14" si="10">SUM(C12:C13)</f>
+        <f t="shared" ref="C14:J14" si="12">SUM(C12:C13)</f>
         <v>140.39100000000002</v>
       </c>
       <c r="D14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>326.71299999999997</v>
       </c>
       <c r="E14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1392</v>
       </c>
       <c r="F14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>1057</v>
       </c>
-      <c r="G14" s="142">
-        <f t="shared" si="10"/>
+      <c r="G14" s="11">
+        <f t="shared" si="12"/>
         <v>951</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>982</v>
       </c>
       <c r="I14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J14" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N14" s="11">
-        <f t="shared" ref="N14:AE14" si="11">SUM(N12:N13)</f>
+        <f t="shared" ref="N14:AI14" si="13">SUM(N12:N13)</f>
         <v>158</v>
       </c>
       <c r="O14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>194</v>
       </c>
       <c r="P14" s="11">
@@ -18714,69 +18659,85 @@
         <v>723</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>317</v>
       </c>
       <c r="R14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>299</v>
       </c>
       <c r="S14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>275</v>
       </c>
       <c r="T14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>218</v>
       </c>
       <c r="U14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>265</v>
       </c>
       <c r="V14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>235</v>
       </c>
       <c r="W14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>246</v>
       </c>
       <c r="X14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>241</v>
       </c>
       <c r="Y14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>229</v>
       </c>
       <c r="Z14" s="11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>231</v>
       </c>
-      <c r="AA14" s="142">
-        <f t="shared" si="11"/>
+      <c r="AA14" s="11">
+        <f t="shared" si="13"/>
         <v>249</v>
       </c>
-      <c r="AB14" s="142">
-        <f t="shared" si="11"/>
+      <c r="AB14" s="11">
+        <f t="shared" si="13"/>
         <v>244</v>
       </c>
-      <c r="AC14" s="14">
-        <f t="shared" si="11"/>
+      <c r="AC14" s="155">
+        <f t="shared" si="13"/>
         <v>258</v>
       </c>
-      <c r="AD14" s="142">
-        <f t="shared" si="11"/>
+      <c r="AD14" s="155">
+        <f t="shared" si="13"/>
+        <v>264</v>
+      </c>
+      <c r="AE14" s="155">
+        <f t="shared" si="13"/>
+        <v>262</v>
+      </c>
+      <c r="AF14" s="14">
+        <f t="shared" si="13"/>
+        <v>293</v>
+      </c>
+      <c r="AG14" s="155">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AE14" s="142">
-        <f t="shared" si="11"/>
+      <c r="AH14" s="155">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AI14" s="155">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C15" s="10">
         <v>33.869</v>
@@ -18790,10 +18751,10 @@
       <c r="F15" s="10">
         <v>285</v>
       </c>
-      <c r="G15" s="144">
+      <c r="G15" s="10">
         <v>159</v>
       </c>
-      <c r="H15" s="154">
+      <c r="H15" s="125">
         <v>112</v>
       </c>
       <c r="I15" s="40"/>
@@ -18807,7 +18768,7 @@
         <v>108</v>
       </c>
       <c r="Q15" s="10">
-        <f t="shared" ref="Q15:Q17" si="12">E15-P15-O15-N15</f>
+        <f t="shared" ref="Q15:Q17" si="14">E15-P15-O15-N15</f>
         <v>92</v>
       </c>
       <c r="R15" s="10">
@@ -18820,7 +18781,7 @@
         <v>65</v>
       </c>
       <c r="U15" s="10">
-        <f t="shared" ref="U15:U17" si="13">F15-T15-S15-R15</f>
+        <f t="shared" ref="U15:U17" si="15">F15-T15-S15-R15</f>
         <v>43</v>
       </c>
       <c r="V15" s="10">
@@ -18833,26 +18794,38 @@
         <v>41</v>
       </c>
       <c r="Y15" s="10">
-        <f t="shared" ref="Y15:Y17" si="14">G15-X15-W15-V15</f>
+        <f t="shared" ref="Y15:Y17" si="16">G15-X15-W15-V15</f>
         <v>40</v>
       </c>
       <c r="Z15" s="10">
         <v>44</v>
       </c>
-      <c r="AA15" s="141">
+      <c r="AA15">
         <v>46</v>
       </c>
       <c r="AB15" s="10">
         <v>50</v>
       </c>
-      <c r="AC15" s="15">
-        <f t="shared" ref="AC15:AC17" si="15">H15-AB15-AA15-Z15</f>
+      <c r="AC15" s="154">
+        <f t="shared" ref="AC15:AC17" si="17">H15-AB15-AA15-Z15</f>
         <v>-28</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AD15" s="161">
+        <f>31+24</f>
+        <v>55</v>
+      </c>
+      <c r="AE15">
+        <f>29+28</f>
+        <v>57</v>
+      </c>
+      <c r="AF15" s="13">
+        <f>33+26</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C16" s="10">
         <v>124.699</v>
@@ -18866,10 +18839,10 @@
       <c r="F16" s="10">
         <v>103</v>
       </c>
-      <c r="G16" s="144">
+      <c r="G16" s="10">
         <v>122</v>
       </c>
-      <c r="H16" s="154">
+      <c r="H16" s="125">
         <f>76+272</f>
         <v>348</v>
       </c>
@@ -18884,7 +18857,7 @@
         <v>87</v>
       </c>
       <c r="Q16" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>42</v>
       </c>
       <c r="R16" s="10">
@@ -18897,7 +18870,7 @@
         <v>19</v>
       </c>
       <c r="U16" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29</v>
       </c>
       <c r="V16" s="10">
@@ -18910,26 +18883,35 @@
         <v>28</v>
       </c>
       <c r="Y16" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="Z16" s="10">
         <v>67</v>
       </c>
-      <c r="AA16" s="141">
+      <c r="AA16">
         <v>64</v>
       </c>
       <c r="AB16" s="10">
         <v>59</v>
       </c>
-      <c r="AC16" s="15">
-        <f t="shared" si="15"/>
+      <c r="AC16" s="154">
+        <f t="shared" si="17"/>
         <v>158</v>
       </c>
-    </row>
-    <row r="17" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD16" s="161">
+        <v>105</v>
+      </c>
+      <c r="AE16" s="161">
+        <v>99</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C17" s="10">
         <v>85.504000000000005</v>
@@ -18943,7 +18925,7 @@
       <c r="F17" s="10">
         <v>924</v>
       </c>
-      <c r="G17" s="144">
+      <c r="G17" s="10">
         <v>1169</v>
       </c>
       <c r="H17" s="15">
@@ -18960,7 +18942,7 @@
         <v>790</v>
       </c>
       <c r="Q17" s="10">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>332</v>
       </c>
       <c r="R17" s="10">
@@ -18973,7 +18955,7 @@
         <v>233</v>
       </c>
       <c r="U17" s="10">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
       <c r="V17" s="10">
@@ -18986,138 +18968,163 @@
         <v>230</v>
       </c>
       <c r="Y17" s="10">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>133</v>
       </c>
       <c r="Z17" s="10">
         <v>118</v>
       </c>
-      <c r="AA17" s="141">
+      <c r="AA17">
         <v>134</v>
       </c>
       <c r="AB17" s="10">
         <v>133</v>
       </c>
-      <c r="AC17" s="15">
-        <f t="shared" si="15"/>
+      <c r="AC17" s="154">
+        <f t="shared" si="17"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="18" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="161">
+        <v>133</v>
+      </c>
+      <c r="AE17" s="161">
+        <v>132</v>
+      </c>
+      <c r="AF17" s="13">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C18" s="11">
-        <f t="shared" ref="C18:J18" si="16">C10-SUM(C14:C17)</f>
+        <f t="shared" ref="C18:J18" si="18">C10-SUM(C14:C17)</f>
         <v>-106.93000000000006</v>
       </c>
       <c r="D18" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>13.7800000000002</v>
       </c>
       <c r="E18" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1641</v>
       </c>
       <c r="F18" s="11">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-1011</v>
       </c>
-      <c r="G18" s="142">
-        <f t="shared" si="16"/>
+      <c r="G18" s="11">
+        <f t="shared" si="18"/>
         <v>-536</v>
       </c>
       <c r="H18" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1054</v>
       </c>
       <c r="I18" s="11">
-        <f t="shared" si="16"/>
-        <v>3710</v>
+        <f t="shared" si="18"/>
+        <v>4470</v>
       </c>
       <c r="J18" s="11">
-        <f t="shared" si="16"/>
-        <v>4030</v>
+        <f t="shared" si="18"/>
+        <v>5170</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="11"/>
       <c r="N18" s="11">
-        <f t="shared" ref="N18:AE18" si="17">N10-SUM(N14:N17)</f>
+        <f t="shared" ref="N18:AI18" si="19">N10-SUM(N14:N17)</f>
         <v>58</v>
       </c>
       <c r="O18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>64</v>
       </c>
       <c r="P18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-1353</v>
       </c>
       <c r="Q18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-410</v>
       </c>
       <c r="R18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-391</v>
       </c>
       <c r="S18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-292</v>
       </c>
       <c r="T18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-174</v>
       </c>
       <c r="U18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-154</v>
       </c>
       <c r="V18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-509</v>
       </c>
       <c r="W18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>20</v>
       </c>
       <c r="X18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-73</v>
       </c>
       <c r="Y18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>26</v>
       </c>
       <c r="Z18" s="11">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>158</v>
       </c>
-      <c r="AA18" s="142">
-        <f t="shared" si="17"/>
+      <c r="AA18" s="11">
+        <f t="shared" si="19"/>
         <v>189</v>
       </c>
-      <c r="AB18" s="142">
-        <f t="shared" si="17"/>
+      <c r="AB18" s="11">
+        <f t="shared" si="19"/>
         <v>151</v>
       </c>
-      <c r="AC18" s="14">
-        <f t="shared" si="17"/>
+      <c r="AC18" s="155">
+        <f t="shared" si="19"/>
         <v>556</v>
       </c>
-      <c r="AD18" s="142">
-        <f t="shared" si="17"/>
-        <v>925</v>
-      </c>
-      <c r="AE18" s="142">
-        <f t="shared" si="17"/>
-        <v>931.27</v>
-      </c>
-    </row>
-    <row r="19" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD18" s="155">
+        <f t="shared" si="19"/>
+        <v>370</v>
+      </c>
+      <c r="AE18" s="155">
+        <f t="shared" si="19"/>
+        <v>439</v>
+      </c>
+      <c r="AF18" s="14">
+        <f t="shared" si="19"/>
+        <v>635</v>
+      </c>
+      <c r="AG18" s="155">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="155">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="155">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -19125,8 +19132,8 @@
         <v>2045</v>
       </c>
       <c r="F19" s="10"/>
-      <c r="G19" s="144"/>
-      <c r="H19" s="154"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="125"/>
       <c r="I19" s="40"/>
       <c r="N19" s="10">
         <v>1492</v>
@@ -19138,26 +19145,26 @@
         <v>25</v>
       </c>
       <c r="Q19" s="10">
-        <f t="shared" ref="Q19:Q20" si="18">E19-P19-O19-N19</f>
+        <f t="shared" ref="Q19:Q20" si="20">E19-P19-O19-N19</f>
         <v>0</v>
       </c>
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
       <c r="T19" s="10"/>
       <c r="U19" s="10">
-        <f t="shared" ref="U19:U20" si="19">F19-T19-S19-R19</f>
+        <f t="shared" ref="U19:U20" si="21">F19-T19-S19-R19</f>
         <v>0</v>
       </c>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
       <c r="X19" s="10"/>
       <c r="Y19" s="10"/>
-      <c r="AC19" s="15">
-        <f t="shared" ref="AC19:AC20" si="20">H19-AB19-AA19-Z19</f>
+      <c r="AC19" s="154">
+        <f t="shared" ref="AC19:AC20" si="22">H19-AB19-AA19-Z19</f>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -19173,10 +19180,10 @@
       <c r="F20" s="10">
         <v>-16</v>
       </c>
-      <c r="G20" s="144">
+      <c r="G20" s="10">
         <v>3</v>
       </c>
-      <c r="H20" s="154">
+      <c r="H20" s="125">
         <v>10</v>
       </c>
       <c r="I20" s="40"/>
@@ -19188,7 +19195,7 @@
         <v>-1</v>
       </c>
       <c r="Q20" s="10">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>3</v>
       </c>
       <c r="R20" s="10"/>
@@ -19197,7 +19204,7 @@
       </c>
       <c r="T20" s="10"/>
       <c r="U20" s="10">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>-18</v>
       </c>
       <c r="V20" s="10"/>
@@ -19214,39 +19221,48 @@
       <c r="Z20" s="10">
         <v>-4</v>
       </c>
-      <c r="AA20" s="141">
+      <c r="AA20">
         <v>2</v>
       </c>
       <c r="AB20" s="10">
         <v>2</v>
       </c>
-      <c r="AC20" s="15">
-        <f t="shared" si="20"/>
+      <c r="AC20" s="154">
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD20" s="161">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="161">
+        <v>3</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C21" s="142">
+        <v>130</v>
+      </c>
+      <c r="C21" s="11">
         <f>C18+SUM(C19:C20)</f>
         <v>-107.58700000000006</v>
       </c>
-      <c r="D21" s="142">
-        <f t="shared" ref="D21:G21" si="21">D18+SUM(D19:D20)</f>
+      <c r="D21" s="11">
+        <f t="shared" ref="D21:G21" si="23">D18+SUM(D19:D20)</f>
         <v>13.830000000000201</v>
       </c>
-      <c r="E21" s="142">
-        <f t="shared" si="21"/>
+      <c r="E21" s="11">
+        <f t="shared" si="23"/>
         <v>405</v>
       </c>
-      <c r="F21" s="142">
-        <f t="shared" si="21"/>
+      <c r="F21" s="11">
+        <f t="shared" si="23"/>
         <v>-1027</v>
       </c>
-      <c r="G21" s="142">
-        <f t="shared" si="21"/>
+      <c r="G21" s="11">
+        <f t="shared" si="23"/>
         <v>-533</v>
       </c>
       <c r="H21" s="14">
@@ -19255,18 +19271,18 @@
       </c>
       <c r="I21" s="11">
         <f>I18-SUM(I19:I20)</f>
-        <v>3710</v>
+        <v>4470</v>
       </c>
       <c r="J21" s="11">
         <f>J18-SUM(J19:J20)</f>
-        <v>4030</v>
+        <v>5170</v>
       </c>
       <c r="N21" s="11">
         <f>N18-SUM(N19:N20)</f>
         <v>-1433</v>
       </c>
       <c r="O21" s="11">
-        <f t="shared" ref="O21:Z21" si="22">O18-SUM(O19:O20)</f>
+        <f t="shared" ref="O21:Z21" si="24">O18-SUM(O19:O20)</f>
         <v>-464</v>
       </c>
       <c r="P21" s="11">
@@ -19274,67 +19290,83 @@
         <v>-1377</v>
       </c>
       <c r="Q21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-413</v>
       </c>
       <c r="R21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-391</v>
       </c>
       <c r="S21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-294</v>
       </c>
       <c r="T21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-174</v>
       </c>
       <c r="U21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-136</v>
       </c>
       <c r="V21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-509</v>
       </c>
       <c r="W21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>22</v>
       </c>
       <c r="X21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>-75</v>
       </c>
       <c r="Y21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>23</v>
       </c>
       <c r="Z21" s="11">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>162</v>
       </c>
-      <c r="AA21" s="142">
+      <c r="AA21" s="11">
         <f>AA18+SUM(AA19:AA20)</f>
         <v>191</v>
       </c>
-      <c r="AB21" s="142">
-        <f t="shared" ref="AB21:AE21" si="23">AB18+SUM(AB19:AB20)</f>
+      <c r="AB21" s="11">
+        <f t="shared" ref="AB21:AI21" si="25">AB18+SUM(AB19:AB20)</f>
         <v>153</v>
       </c>
-      <c r="AC21" s="14">
-        <f t="shared" si="23"/>
+      <c r="AC21" s="155">
+        <f t="shared" si="25"/>
         <v>566</v>
       </c>
-      <c r="AD21" s="142">
-        <f t="shared" si="23"/>
-        <v>925</v>
-      </c>
-      <c r="AE21" s="142">
-        <f t="shared" si="23"/>
-        <v>931.27</v>
-      </c>
-    </row>
-    <row r="22" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD21" s="155">
+        <f t="shared" si="25"/>
+        <v>371</v>
+      </c>
+      <c r="AE21" s="155">
+        <f t="shared" si="25"/>
+        <v>442</v>
+      </c>
+      <c r="AF21" s="14">
+        <f t="shared" si="25"/>
+        <v>634</v>
+      </c>
+      <c r="AG21" s="155">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AH21" s="155">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="155">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>20</v>
       </c>
@@ -19350,10 +19382,10 @@
       <c r="F22" s="10">
         <v>1</v>
       </c>
-      <c r="G22" s="144">
+      <c r="G22" s="10">
         <v>8</v>
       </c>
-      <c r="H22" s="154">
+      <c r="H22" s="125">
         <v>-347</v>
       </c>
       <c r="I22" s="40"/>
@@ -19399,129 +19431,154 @@
       <c r="Z22" s="10">
         <v>5</v>
       </c>
-      <c r="AA22" s="141">
+      <c r="AA22">
         <v>3</v>
       </c>
       <c r="AB22" s="10">
         <v>3</v>
       </c>
-      <c r="AC22" s="15">
+      <c r="AC22" s="154">
         <f>H22-AB22-AA22-Z22</f>
         <v>-358</v>
       </c>
-    </row>
-    <row r="23" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD22" s="161">
+        <v>35</v>
+      </c>
+      <c r="AE22" s="161">
+        <v>56</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="11">
-        <f>C21-SUM(C22:C22)</f>
+        <f t="shared" ref="C23:H23" si="26">C21-SUM(C22:C22)</f>
         <v>-106.56900000000006</v>
       </c>
       <c r="D23" s="11">
-        <f>D21-SUM(D22:D22)</f>
+        <f t="shared" si="26"/>
         <v>7.4490000000002006</v>
       </c>
       <c r="E23" s="11">
-        <f>E21-SUM(E22:E22)</f>
+        <f t="shared" si="26"/>
         <v>403</v>
       </c>
       <c r="F23" s="11">
-        <f>F21-SUM(F22:F22)</f>
+        <f t="shared" si="26"/>
         <v>-1028</v>
       </c>
-      <c r="G23" s="142">
-        <f>G21-SUM(G22:G22)</f>
+      <c r="G23" s="11">
+        <f t="shared" si="26"/>
         <v>-541</v>
       </c>
       <c r="H23" s="14">
-        <f>H21-SUM(H22:H22)</f>
+        <f t="shared" si="26"/>
         <v>1411</v>
       </c>
       <c r="I23" s="50">
         <f>I26*I24</f>
-        <v>1470.1499999999999</v>
+        <v>1790.9099999999999</v>
       </c>
       <c r="J23" s="50">
         <f>J26*J24</f>
         <v>0</v>
       </c>
       <c r="N23" s="11">
-        <f t="shared" ref="N23:AE23" si="24">N21-SUM(N22:N22)</f>
+        <f t="shared" ref="N23:AI23" si="27">N21-SUM(N22:N22)</f>
         <v>-1445</v>
       </c>
       <c r="O23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-502</v>
       </c>
       <c r="P23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-1327</v>
       </c>
       <c r="Q23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-415</v>
       </c>
       <c r="R23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-392</v>
       </c>
       <c r="S23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-295</v>
       </c>
       <c r="T23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-175</v>
       </c>
       <c r="U23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-134</v>
       </c>
       <c r="V23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-511</v>
       </c>
       <c r="W23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>25</v>
       </c>
       <c r="X23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>-85</v>
       </c>
       <c r="Y23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>24</v>
       </c>
       <c r="Z23" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>157</v>
       </c>
-      <c r="AA23" s="142">
-        <f t="shared" si="24"/>
+      <c r="AA23" s="11">
+        <f t="shared" si="27"/>
         <v>188</v>
       </c>
-      <c r="AB23" s="142">
-        <f t="shared" si="24"/>
+      <c r="AB23" s="11">
+        <f t="shared" si="27"/>
         <v>150</v>
       </c>
-      <c r="AC23" s="14">
-        <f t="shared" si="24"/>
+      <c r="AC23" s="155">
+        <f t="shared" si="27"/>
         <v>924</v>
       </c>
-      <c r="AD23" s="142">
-        <f t="shared" si="24"/>
-        <v>925</v>
-      </c>
-      <c r="AE23" s="142">
-        <f t="shared" si="24"/>
-        <v>931.27</v>
-      </c>
-    </row>
-    <row r="24" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD23" s="155">
+        <f t="shared" si="27"/>
+        <v>336</v>
+      </c>
+      <c r="AE23" s="155">
+        <f t="shared" si="27"/>
+        <v>386</v>
+      </c>
+      <c r="AF23" s="14">
+        <f t="shared" si="27"/>
+        <v>556</v>
+      </c>
+      <c r="AG23" s="155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AH23" s="155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="AI23" s="155">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="10">
         <v>221.66461000000001</v>
@@ -19535,10 +19592,10 @@
       <c r="F24" s="10">
         <v>878.63002400000005</v>
       </c>
-      <c r="G24" s="144">
+      <c r="G24" s="10">
         <v>890.85765900000001</v>
       </c>
-      <c r="H24" s="154">
+      <c r="H24" s="125">
         <v>906.17150400000003</v>
       </c>
       <c r="I24" s="40">
@@ -19583,43 +19640,52 @@
       <c r="Z24" s="10">
         <v>895.779</v>
       </c>
-      <c r="AA24" s="144">
+      <c r="AA24" s="10">
         <v>904.49</v>
       </c>
-      <c r="AB24" s="151">
+      <c r="AB24" s="10">
         <v>905.54475000000002</v>
       </c>
-      <c r="AC24" s="15">
+      <c r="AC24" s="154">
         <f>H24</f>
         <v>906.17150400000003</v>
       </c>
-    </row>
-    <row r="25" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD24" s="161">
+        <v>909.24161900000001</v>
+      </c>
+      <c r="AE24" s="161">
+        <v>909.127658</v>
+      </c>
+      <c r="AF24" s="13">
+        <v>917.94065999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C25" s="2">
-        <f>C23/C24</f>
+        <f t="shared" ref="C25:H25" si="28">C23/C24</f>
         <v>-0.48076686666401125</v>
       </c>
       <c r="D25" s="2">
-        <f>D23/D24</f>
+        <f t="shared" si="28"/>
         <v>3.0404405780849388E-2</v>
       </c>
       <c r="E25" s="2">
-        <f>E23/E24</f>
+        <f t="shared" si="28"/>
         <v>0.81847155859061149</v>
       </c>
       <c r="F25" s="2">
-        <f>F23/F24</f>
+        <f t="shared" si="28"/>
         <v>-1.1700032686340343</v>
       </c>
-      <c r="G25" s="145">
-        <f>G23/G24</f>
+      <c r="G25" s="2">
+        <f t="shared" si="28"/>
         <v>-0.60727995604514418</v>
       </c>
       <c r="H25" s="35">
-        <f>H23/H24</f>
+        <f t="shared" si="28"/>
         <v>1.557100387478086</v>
       </c>
       <c r="I25" s="48"/>
@@ -19629,75 +19695,91 @@
         <v>-6.2639404102202123</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" ref="O25:Y25" si="25">O23/O24</f>
+        <f t="shared" ref="O25:Y25" si="29">O23/O24</f>
         <v>-2.1617150709766633</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-2.0793891405943916</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.65029878925898454</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.45173303506906803</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.33719168211306522</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.1983325165339194</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.15186604123168684</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-0.56972452966076481</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.7624771443276616E-2</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>-9.4960524295599869E-2</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="29"/>
         <v>2.6812383330522317E-2</v>
       </c>
       <c r="Z25" s="2">
         <f>Z23/Z24</f>
         <v>0.17526644406711925</v>
       </c>
-      <c r="AA25" s="145">
+      <c r="AA25" s="2">
         <f>AA23/AA24</f>
         <v>0.20785193866156618</v>
       </c>
-      <c r="AB25" s="145">
-        <f t="shared" ref="AB25:AC25" si="26">AB23/AB24</f>
+      <c r="AB25" s="2">
+        <f t="shared" ref="AB25:AI25" si="30">AB23/AB24</f>
         <v>0.16564614835434693</v>
       </c>
-      <c r="AC25" s="35">
-        <f t="shared" si="26"/>
+      <c r="AC25" s="156">
+        <f t="shared" si="30"/>
         <v>1.0196745273066985</v>
       </c>
-      <c r="AD25" s="145">
-        <f>AD26</f>
-        <v>0.44</v>
-      </c>
-      <c r="AE25" s="145">
-        <f>AE26</f>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD25" s="156">
+        <f t="shared" si="30"/>
+        <v>0.36953873753550648</v>
+      </c>
+      <c r="AE25" s="156">
+        <f t="shared" si="30"/>
+        <v>0.42458283674832387</v>
+      </c>
+      <c r="AF25" s="35">
+        <f t="shared" si="30"/>
+        <v>0.60570364101749241</v>
+      </c>
+      <c r="AG25" s="156" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH25" s="156" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI25" s="156" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="9" t="s">
         <v>64</v>
       </c>
@@ -19705,15 +19787,15 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="155">
+      <c r="G26" s="2"/>
+      <c r="H26" s="126">
         <v>0.72</v>
       </c>
       <c r="I26" s="44">
-        <v>1.65</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="J26" s="44">
-        <v>1.77</v>
+        <v>2.23</v>
       </c>
       <c r="N26" s="45"/>
       <c r="O26" s="45"/>
@@ -19730,13 +19812,13 @@
       <c r="Z26" s="120">
         <v>0.05</v>
       </c>
-      <c r="AA26" s="146">
+      <c r="AA26" s="120">
         <v>0.09</v>
       </c>
       <c r="AB26" s="1">
         <v>0.18</v>
       </c>
-      <c r="AC26" s="16">
+      <c r="AC26" s="157">
         <v>0.17</v>
       </c>
       <c r="AD26" s="1">
@@ -19745,8 +19827,15 @@
       <c r="AE26" s="1">
         <v>0.42</v>
       </c>
-    </row>
-    <row r="27" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="AH26" s="1">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="27" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>30</v>
       </c>
@@ -19771,23 +19860,23 @@
         <v>0.49008042895442361</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" ref="H27:J27" si="27">1-H14/H10</f>
+        <f t="shared" ref="H27:J27" si="31">1-H14/H10</f>
         <v>0.66723144696712977</v>
       </c>
       <c r="I27" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="J27" s="39">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="N27" s="3">
-        <f t="shared" ref="N27:Y27" si="28">1-N14/N10</f>
+        <f t="shared" ref="N27:Y27" si="32">1-N14/N10</f>
         <v>0.69731800766283525</v>
       </c>
       <c r="O27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.6566371681415929</v>
       </c>
       <c r="P27" s="3"/>
@@ -19796,57 +19885,79 @@
         <v>0.15013404825737264</v>
       </c>
       <c r="R27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.13522012578616349</v>
       </c>
       <c r="T27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.39612188365650969</v>
       </c>
       <c r="U27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.30263157894736847</v>
       </c>
       <c r="V27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.46712018140589573</v>
       </c>
       <c r="W27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.49382716049382713</v>
       </c>
       <c r="X27" s="3">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.48394004282655245</v>
       </c>
       <c r="Y27" s="39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0.5138004246284501</v>
       </c>
       <c r="Z27" s="39">
-        <f t="shared" ref="Z27:AA27" si="29">1-Z14/Z10</f>
+        <f t="shared" ref="Z27:AA27" si="33">1-Z14/Z10</f>
         <v>0.62621359223300965</v>
       </c>
       <c r="AA27" s="39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0.63489736070381231</v>
       </c>
       <c r="AB27" s="39">
-        <f t="shared" ref="AB27:AC27" si="30">1-AB14/AB10</f>
+        <f t="shared" ref="AB27:AC27" si="34">1-AB14/AB10</f>
         <v>0.61695447409733117</v>
       </c>
-      <c r="AC27" s="6">
-        <f t="shared" si="30"/>
+      <c r="AC27" s="39">
+        <f t="shared" si="34"/>
         <v>0.74556213017751483</v>
       </c>
-      <c r="AD27" s="39"/>
-      <c r="AE27" s="39"/>
-    </row>
-    <row r="28" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD27" s="39">
+        <f t="shared" ref="AD27:AI27" si="35">1-AD14/AD10</f>
+        <v>0.71521035598705507</v>
+      </c>
+      <c r="AE27" s="39">
+        <f t="shared" si="35"/>
+        <v>0.73508594539939331</v>
+      </c>
+      <c r="AF27" s="6">
+        <f t="shared" si="35"/>
+        <v>0.77001569858712715</v>
+      </c>
+      <c r="AG27" s="39" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH27" s="39" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI27" s="39" t="e">
+        <f t="shared" si="35"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>31</v>
       </c>
@@ -19866,90 +19977,112 @@
         <f>F23/F10</f>
         <v>-0.75699558173784975</v>
       </c>
-      <c r="G28" s="147">
+      <c r="G28" s="4">
         <f>G23/G10</f>
         <v>-0.2900804289544236</v>
       </c>
       <c r="H28" s="7">
-        <f t="shared" ref="H28:J28" si="31">H23/H10</f>
+        <f t="shared" ref="H28:J28" si="36">H23/H10</f>
         <v>0.47814300237207724</v>
       </c>
-      <c r="I28" s="147">
-        <f t="shared" si="31"/>
-        <v>0.39626684636118592</v>
-      </c>
-      <c r="J28" s="147">
-        <f t="shared" si="31"/>
+      <c r="I28" s="4">
+        <f t="shared" si="36"/>
+        <v>0.40065100671140935</v>
+      </c>
+      <c r="J28" s="4">
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="N28" s="4">
-        <f t="shared" ref="N28:Y28" si="32">N23/N10</f>
+        <f t="shared" ref="N28:Y28" si="37">N23/N10</f>
         <v>-2.7681992337164751</v>
       </c>
       <c r="O28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.8884955752212389</v>
       </c>
       <c r="P28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-3.7380281690140844</v>
       </c>
       <c r="Q28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-1.1126005361930296</v>
       </c>
       <c r="R28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-1.3110367892976589</v>
       </c>
       <c r="S28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.92767295597484278</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.48476454293628807</v>
       </c>
       <c r="U28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.35263157894736841</v>
       </c>
       <c r="V28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-1.1587301587301588</v>
       </c>
       <c r="W28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5.1440329218106998E-2</v>
       </c>
       <c r="X28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>-0.18201284796573874</v>
       </c>
       <c r="Y28" s="4">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>5.0955414012738856E-2</v>
       </c>
       <c r="Z28" s="4">
-        <f t="shared" ref="Z28:AA28" si="33">Z23/Z10</f>
+        <f t="shared" ref="Z28:AA28" si="38">Z23/Z10</f>
         <v>0.25404530744336568</v>
       </c>
-      <c r="AA28" s="147">
-        <f t="shared" si="33"/>
+      <c r="AA28" s="4">
+        <f t="shared" si="38"/>
         <v>0.2756598240469208</v>
       </c>
-      <c r="AB28" s="147">
-        <f t="shared" ref="AB28" si="34">AB23/AB10</f>
+      <c r="AB28" s="4">
+        <f t="shared" ref="AB28" si="39">AB23/AB10</f>
         <v>0.23547880690737832</v>
       </c>
-      <c r="AC28" s="7">
+      <c r="AC28" s="158">
         <f>AC23/AC10</f>
         <v>0.91124260355029585</v>
       </c>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="147"/>
-    </row>
-    <row r="29" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD28" s="158">
+        <f t="shared" ref="AD28:AI28" si="40">AD23/AD10</f>
+        <v>0.36245954692556637</v>
+      </c>
+      <c r="AE28" s="158">
+        <f t="shared" si="40"/>
+        <v>0.39029322548028311</v>
+      </c>
+      <c r="AF28" s="7">
+        <f t="shared" si="40"/>
+        <v>0.43642072213500788</v>
+      </c>
+      <c r="AG28" s="158" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH28" s="158" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI28" s="158" t="e">
+        <f t="shared" si="40"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="29" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>32</v>
       </c>
@@ -19971,81 +20104,97 @@
         <v>0.37334315169366716</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" ref="H29:I29" si="35">H10/G10-1</f>
+        <f t="shared" ref="H29:I29" si="41">H10/G10-1</f>
         <v>0.58230563002680968</v>
       </c>
       <c r="I29" s="39">
-        <f t="shared" si="35"/>
-        <v>0.25720094883090483</v>
+        <f t="shared" si="41"/>
+        <v>0.5147407658420875</v>
       </c>
       <c r="J29" s="39">
         <f>J11/I11-1</f>
-        <v>8.6253369272237146E-2</v>
+        <v>0.15659955257270686</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4">
-        <f t="shared" ref="R29:Y29" si="36">R10/N10-1</f>
+        <f t="shared" ref="R29:Y29" si="42">R10/N10-1</f>
         <v>-0.42720306513409967</v>
       </c>
       <c r="S29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>-0.43716814159292039</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1.6901408450704203E-2</v>
       </c>
       <c r="U29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>1.8766756032171594E-2</v>
       </c>
       <c r="V29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.47491638795986613</v>
       </c>
       <c r="W29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.52830188679245293</v>
       </c>
       <c r="X29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.29362880886426601</v>
       </c>
       <c r="Y29" s="4">
-        <f t="shared" si="36"/>
+        <f t="shared" si="42"/>
         <v>0.23947368421052628</v>
       </c>
       <c r="Z29" s="4">
-        <f t="shared" ref="Z29" si="37">Z10/V10-1</f>
+        <f t="shared" ref="Z29" si="43">Z10/V10-1</f>
         <v>0.40136054421768708</v>
       </c>
-      <c r="AA29" s="147">
-        <f t="shared" ref="AA29" si="38">AA10/W10-1</f>
+      <c r="AA29" s="4">
+        <f t="shared" ref="AA29" si="44">AA10/W10-1</f>
         <v>0.40329218106995879</v>
       </c>
-      <c r="AB29" s="147">
-        <f t="shared" ref="AB29" si="39">AB10/X10-1</f>
+      <c r="AB29" s="4">
+        <f t="shared" ref="AB29" si="45">AB10/X10-1</f>
         <v>0.3640256959314776</v>
       </c>
-      <c r="AC29" s="7">
-        <f t="shared" ref="AC29" si="40">AC10/Y10-1</f>
+      <c r="AC29" s="158">
+        <f t="shared" ref="AC29" si="46">AC10/Y10-1</f>
         <v>1.1528662420382165</v>
       </c>
-      <c r="AD29" s="147">
-        <f t="shared" ref="AD29" si="41">AD10/Z10-1</f>
-        <v>0.49676375404530737</v>
-      </c>
-      <c r="AE29" s="147">
-        <f t="shared" ref="AE29" si="42">AE10/AA10-1</f>
-        <v>0.36549853372434016</v>
-      </c>
-    </row>
-    <row r="30" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD29" s="158">
+        <f t="shared" ref="AD29" si="47">AD10/Z10-1</f>
+        <v>0.5</v>
+      </c>
+      <c r="AE29" s="158">
+        <f t="shared" ref="AE29" si="48">AE10/AA10-1</f>
+        <v>0.45014662756598245</v>
+      </c>
+      <c r="AF29" s="7">
+        <f>AF10/AB10-1</f>
+        <v>1</v>
+      </c>
+      <c r="AG29" s="158">
+        <f t="shared" ref="AG29" si="49">AG10/AC10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AH29" s="158">
+        <f t="shared" ref="AH29" si="50">AH10/AD10-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AI29" s="158">
+        <f t="shared" ref="AI29" si="51">AI10/AE10-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C30" s="4">
         <f>C15/C10</f>
@@ -20063,20 +20212,20 @@
         <f>F15/F10</f>
         <v>0.20986745213549338</v>
       </c>
-      <c r="G30" s="147">
+      <c r="G30" s="4">
         <f>G15/G10</f>
         <v>8.5254691689008039E-2</v>
       </c>
       <c r="H30" s="7">
-        <f t="shared" ref="H30:J30" si="43">H15/H10</f>
+        <f t="shared" ref="H30:J30" si="52">H15/H10</f>
         <v>3.7953236191121655E-2</v>
       </c>
-      <c r="I30" s="147">
-        <f t="shared" si="43"/>
+      <c r="I30" s="4">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="J30" s="147">
-        <f t="shared" si="43"/>
+      <c r="J30" s="4">
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="N30" s="4">
@@ -20084,71 +20233,93 @@
         <v>0.12835249042145594</v>
       </c>
       <c r="O30" s="4">
-        <f t="shared" ref="O30:Y30" si="44">O15/O10</f>
+        <f t="shared" ref="O30:Y30" si="53">O15/O10</f>
         <v>0.17876106194690267</v>
       </c>
       <c r="P30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.30422535211267604</v>
       </c>
       <c r="Q30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.24664879356568364</v>
       </c>
       <c r="R30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.30434782608695654</v>
       </c>
       <c r="S30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.27044025157232704</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.18005540166204986</v>
       </c>
       <c r="U30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>0.11315789473684211</v>
       </c>
       <c r="V30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>9.5238095238095233E-2</v>
       </c>
       <c r="W30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>7.407407407407407E-2</v>
       </c>
       <c r="X30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>8.7794432548179868E-2</v>
       </c>
       <c r="Y30" s="4">
-        <f t="shared" si="44"/>
+        <f t="shared" si="53"/>
         <v>8.4925690021231418E-2</v>
       </c>
       <c r="Z30" s="4">
-        <f t="shared" ref="Z30" si="45">Z15/Z10</f>
+        <f t="shared" ref="Z30" si="54">Z15/Z10</f>
         <v>7.1197411003236247E-2</v>
       </c>
-      <c r="AA30" s="147">
+      <c r="AA30" s="4">
         <f>AA15/AA10</f>
         <v>6.7448680351906154E-2</v>
       </c>
-      <c r="AB30" s="147">
-        <f t="shared" ref="AB30:AC30" si="46">AB15/AB10</f>
+      <c r="AB30" s="4">
+        <f t="shared" ref="AB30:AC30" si="55">AB15/AB10</f>
         <v>7.8492935635792779E-2</v>
       </c>
-      <c r="AC30" s="7">
-        <f t="shared" si="46"/>
+      <c r="AC30" s="158">
+        <f t="shared" si="55"/>
         <v>-2.7613412228796843E-2</v>
       </c>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="147"/>
-    </row>
-    <row r="31" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD30" s="158">
+        <f t="shared" ref="AD30:AI30" si="56">AD15/AD10</f>
+        <v>5.9331175836030203E-2</v>
+      </c>
+      <c r="AE30" s="158">
+        <f t="shared" si="56"/>
+        <v>5.7633973710819006E-2</v>
+      </c>
+      <c r="AF30" s="7">
+        <f t="shared" si="56"/>
+        <v>4.6310832025117737E-2</v>
+      </c>
+      <c r="AG30" s="158" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH30" s="158" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI30" s="158" t="e">
+        <f t="shared" si="56"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C31" s="4">
         <f>C16/C10</f>
@@ -20166,20 +20337,20 @@
         <f>F16/F10</f>
         <v>7.5846833578792336E-2</v>
       </c>
-      <c r="G31" s="147">
+      <c r="G31" s="4">
         <f>G16/G10</f>
         <v>6.5415549597855227E-2</v>
       </c>
       <c r="H31" s="7">
-        <f t="shared" ref="H31:J31" si="47">H16/H10</f>
+        <f t="shared" ref="H31:J31" si="57">H16/H10</f>
         <v>0.11792612673669943</v>
       </c>
-      <c r="I31" s="147">
-        <f t="shared" si="47"/>
+      <c r="I31" s="4">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="J31" s="147">
-        <f t="shared" si="47"/>
+      <c r="J31" s="4">
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="N31" s="4">
@@ -20187,71 +20358,93 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="O31" s="4">
-        <f t="shared" ref="O31:Y31" si="48">O16/O10</f>
+        <f t="shared" ref="O31:Y31" si="58">O16/O10</f>
         <v>0.1663716814159292</v>
       </c>
       <c r="P31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.24507042253521127</v>
       </c>
       <c r="Q31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.1126005361930295</v>
       </c>
       <c r="R31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>0.10702341137123746</v>
       </c>
       <c r="S31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>7.2327044025157231E-2</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="U31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>7.6315789473684212E-2</v>
       </c>
       <c r="V31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>5.8956916099773243E-2</v>
       </c>
       <c r="W31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>5.1440329218106998E-2</v>
       </c>
       <c r="X31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>5.9957173447537475E-2</v>
       </c>
       <c r="Y31" s="4">
-        <f t="shared" si="48"/>
+        <f t="shared" si="58"/>
         <v>9.1295116772823773E-2</v>
       </c>
       <c r="Z31" s="4">
-        <f t="shared" ref="Z31" si="49">Z16/Z10</f>
+        <f t="shared" ref="Z31" si="59">Z16/Z10</f>
         <v>0.10841423948220065</v>
       </c>
-      <c r="AA31" s="147">
+      <c r="AA31" s="4">
         <f>AA16/AA10</f>
         <v>9.3841642228739003E-2</v>
       </c>
-      <c r="AB31" s="147">
-        <f t="shared" ref="AB31:AC31" si="50">AB16/AB10</f>
+      <c r="AB31" s="4">
+        <f t="shared" ref="AB31:AC31" si="60">AB16/AB10</f>
         <v>9.2621664050235475E-2</v>
       </c>
-      <c r="AC31" s="7">
-        <f t="shared" si="50"/>
+      <c r="AC31" s="158">
+        <f t="shared" si="60"/>
         <v>0.15581854043392504</v>
       </c>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="147"/>
-    </row>
-    <row r="32" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD31" s="158">
+        <f t="shared" ref="AD31:AI31" si="61">AD16/AD10</f>
+        <v>0.11326860841423948</v>
+      </c>
+      <c r="AE31" s="158">
+        <f t="shared" si="61"/>
+        <v>0.10010111223458039</v>
+      </c>
+      <c r="AF31" s="7">
+        <f t="shared" si="61"/>
+        <v>8.0062794348508631E-2</v>
+      </c>
+      <c r="AG31" s="158" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH31" s="158" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI31" s="158" t="e">
+        <f t="shared" si="61"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="32" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4">
         <f>C17/C10</f>
@@ -20269,20 +20462,20 @@
         <f>F17/F10</f>
         <v>0.68041237113402064</v>
       </c>
-      <c r="G32" s="147">
+      <c r="G32" s="4">
         <f>G17/G10</f>
         <v>0.62680965147453083</v>
       </c>
       <c r="H32" s="7">
-        <f t="shared" ref="H32:J32" si="51">H17/H10</f>
+        <f t="shared" ref="H32:J32" si="62">H17/H10</f>
         <v>0.15418502202643172</v>
       </c>
-      <c r="I32" s="147">
-        <f t="shared" si="51"/>
+      <c r="I32" s="4">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="J32" s="147">
-        <f t="shared" si="51"/>
+      <c r="J32" s="4">
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="N32" s="4">
@@ -20290,90 +20483,112 @@
         <v>0.26245210727969348</v>
       </c>
       <c r="O32" s="4">
-        <f t="shared" ref="O32:Y32" si="52">O17/O10</f>
+        <f t="shared" ref="O32:Y32" si="63">O17/O10</f>
         <v>0.19823008849557522</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.89008042895442363</v>
       </c>
       <c r="R32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.89632107023411367</v>
       </c>
       <c r="S32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.71069182389937102</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.64542936288088648</v>
       </c>
       <c r="U32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.51842105263157889</v>
       </c>
       <c r="V32" s="4"/>
       <c r="W32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.3271604938271605</v>
       </c>
       <c r="X32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.49250535331905781</v>
       </c>
       <c r="Y32" s="4">
-        <f t="shared" si="52"/>
+        <f t="shared" si="63"/>
         <v>0.28237791932059447</v>
       </c>
       <c r="Z32" s="4">
-        <f t="shared" ref="Z32" si="53">Z17/Z10</f>
+        <f t="shared" ref="Z32" si="64">Z17/Z10</f>
         <v>0.19093851132686085</v>
       </c>
-      <c r="AA32" s="147">
+      <c r="AA32" s="4">
         <f>AA17/AA10</f>
         <v>0.19648093841642228</v>
       </c>
-      <c r="AB32" s="147">
-        <f t="shared" ref="AB32:AC32" si="54">AB17/AB10</f>
+      <c r="AB32" s="4">
+        <f t="shared" ref="AB32:AC32" si="65">AB17/AB10</f>
         <v>0.2087912087912088</v>
       </c>
-      <c r="AC32" s="7">
-        <f t="shared" si="54"/>
+      <c r="AC32" s="158">
+        <f t="shared" si="65"/>
         <v>6.9033530571992116E-2</v>
       </c>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="147"/>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD32" s="158">
+        <f t="shared" ref="AD32:AI32" si="66">AD17/AD10</f>
+        <v>0.14347357065803668</v>
+      </c>
+      <c r="AE32" s="158">
+        <f t="shared" si="66"/>
+        <v>0.13346814964610718</v>
+      </c>
+      <c r="AF32" s="7">
+        <f t="shared" si="66"/>
+        <v>0.14521193092621665</v>
+      </c>
+      <c r="AG32" s="158" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH32" s="158" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI32" s="158" t="e">
+        <f t="shared" si="66"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="33" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4">
-        <f t="shared" ref="E33:G34" si="55">E7/D7-1</f>
+        <f t="shared" ref="E33:G34" si="67">E7/D7-1</f>
         <v>0.94686259343760093</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>-0.41940085592011411</v>
       </c>
-      <c r="G33" s="147">
-        <f t="shared" si="55"/>
+      <c r="G33" s="4">
+        <f t="shared" si="67"/>
         <v>-3.5626535626535616E-2</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33:H34" si="56">H7/G7-1</f>
+        <f t="shared" ref="H33:H34" si="68">H7/G7-1</f>
         <v>1.0980891719745225</v>
       </c>
-      <c r="I33" s="147">
-        <f t="shared" ref="I33:I34" si="57">I7/H7-1</f>
+      <c r="I33" s="4">
+        <f t="shared" ref="I33:I34" si="69">I7/H7-1</f>
         <v>-1</v>
       </c>
-      <c r="J33" s="147" t="e">
-        <f t="shared" ref="J33:J34" si="58">J7/I7-1</f>
+      <c r="J33" s="4" t="e">
+        <f t="shared" ref="J33:J34" si="70">J7/I7-1</f>
         <v>#DIV/0!</v>
       </c>
       <c r="N33" s="4"/>
@@ -20381,27 +20596,27 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4">
-        <f t="shared" ref="R33:W33" si="59">R7/N7-1</f>
+        <f t="shared" ref="R33:W33" si="71">R7/N7-1</f>
         <v>-0.48095238095238091</v>
       </c>
       <c r="S33" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-0.55210643015521066</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-0.22097378277153557</v>
       </c>
       <c r="U33" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-0.29545454545454541</v>
       </c>
       <c r="V33" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-5.0458715596330306E-2</v>
       </c>
       <c r="W33" s="4">
-        <f t="shared" si="59"/>
+        <f t="shared" si="71"/>
         <v>-4.4554455445544594E-2</v>
       </c>
       <c r="X33" s="4">
@@ -20413,52 +20628,74 @@
         <v>7.5268817204301008E-2</v>
       </c>
       <c r="Z33" s="4">
-        <f t="shared" ref="Z33" si="60">Z7/V7-1</f>
+        <f t="shared" ref="Z33" si="72">Z7/V7-1</f>
         <v>0.58937198067632846</v>
       </c>
-      <c r="AA33" s="147">
+      <c r="AA33" s="4">
         <f>AA7/W7-1</f>
         <v>0.69430051813471505</v>
       </c>
-      <c r="AB33" s="147">
-        <f t="shared" ref="AB33:AC34" si="61">AB7/X7-1</f>
+      <c r="AB33" s="4">
+        <f t="shared" ref="AB33:AC34" si="73">AB7/X7-1</f>
         <v>0.72432432432432425</v>
       </c>
-      <c r="AC33" s="7">
-        <f t="shared" si="61"/>
+      <c r="AC33" s="158">
+        <f t="shared" si="73"/>
         <v>2.36</v>
       </c>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="147"/>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD33" s="158">
+        <f t="shared" ref="AD33:AD34" si="74">AD7/Z7-1</f>
+        <v>0.77203647416413368</v>
+      </c>
+      <c r="AE33" s="158">
+        <f t="shared" ref="AE33:AE34" si="75">AE7/AA7-1</f>
+        <v>0.64831804281345562</v>
+      </c>
+      <c r="AF33" s="7">
+        <f t="shared" ref="AF33:AF34" si="76">AF7/AB7-1</f>
+        <v>1.2884012539184955</v>
+      </c>
+      <c r="AG33" s="158">
+        <f t="shared" ref="AG33:AG34" si="77">AG7/AC7-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AH33" s="158">
+        <f t="shared" ref="AH33:AH34" si="78">AH7/AD7-1</f>
+        <v>-1</v>
+      </c>
+      <c r="AI33" s="158">
+        <f t="shared" ref="AI33:AI34" si="79">AI7/AE7-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.44276560131201492</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="55"/>
+        <f t="shared" si="67"/>
         <v>0.65625</v>
       </c>
-      <c r="G34" s="147">
-        <f t="shared" si="55"/>
+      <c r="G34" s="4">
+        <f t="shared" si="67"/>
         <v>1.1910377358490565</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" si="56"/>
+        <f t="shared" si="68"/>
         <v>0.19375672766415497</v>
       </c>
-      <c r="I34" s="147">
-        <f t="shared" si="57"/>
+      <c r="I34" s="4">
+        <f t="shared" si="69"/>
         <v>-1</v>
       </c>
-      <c r="J34" s="147" t="e">
-        <f t="shared" si="58"/>
+      <c r="J34" s="4" t="e">
+        <f t="shared" si="70"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N34" s="4"/>
@@ -20466,27 +20703,27 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4">
-        <f t="shared" ref="R34:W34" si="62">R8/N8-1</f>
+        <f t="shared" ref="R34:W34" si="80">R8/N8-1</f>
         <v>-0.11290322580645162</v>
       </c>
       <c r="S34" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>8.8235294117646967E-2</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>1.0317460317460316</v>
       </c>
       <c r="U34" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>1.6507936507936507</v>
       </c>
       <c r="V34" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>2.7818181818181817</v>
       </c>
       <c r="W34" s="4">
-        <f t="shared" si="62"/>
+        <f t="shared" si="80"/>
         <v>2.1621621621621623</v>
       </c>
       <c r="X34" s="4">
@@ -20498,27 +20735,49 @@
         <v>0.41317365269461082</v>
       </c>
       <c r="Z34" s="4">
-        <f t="shared" ref="Z34:AA34" si="63">Z8/V8-1</f>
+        <f t="shared" ref="Z34:AA34" si="81">Z8/V8-1</f>
         <v>0.22115384615384626</v>
       </c>
-      <c r="AA34" s="147">
-        <f t="shared" si="63"/>
+      <c r="AA34" s="4">
+        <f t="shared" si="81"/>
         <v>0.21794871794871784</v>
       </c>
-      <c r="AB34" s="147">
-        <f t="shared" si="61"/>
+      <c r="AB34" s="4">
+        <f t="shared" si="73"/>
         <v>9.1633466135458086E-2</v>
       </c>
-      <c r="AC34" s="7">
-        <f t="shared" si="61"/>
+      <c r="AC34" s="158">
+        <f t="shared" si="73"/>
         <v>0.25423728813559321</v>
       </c>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="147"/>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD34" s="158">
+        <f t="shared" si="74"/>
+        <v>0.1417322834645669</v>
+      </c>
+      <c r="AE34" s="158">
+        <f t="shared" si="75"/>
+        <v>0.25263157894736832</v>
+      </c>
+      <c r="AF34" s="7">
+        <f t="shared" si="76"/>
+        <v>0.66423357664233573</v>
+      </c>
+      <c r="AG34" s="158">
+        <f t="shared" si="77"/>
+        <v>-1</v>
+      </c>
+      <c r="AH34" s="158">
+        <f t="shared" si="78"/>
+        <v>-1</v>
+      </c>
+      <c r="AI34" s="158">
+        <f t="shared" si="79"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3">
@@ -20538,16 +20797,16 @@
         <v>-0.47373540856031127</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" ref="H35" si="64">H23/G23-1</f>
+        <f t="shared" ref="H35" si="82">H23/G23-1</f>
         <v>-3.6081330868761552</v>
       </c>
       <c r="I35" s="39">
         <f>I26/H25-1</f>
-        <v>5.9661928844790824E-2</v>
+        <v>0.29086089513819968</v>
       </c>
       <c r="J35" s="39">
         <f>J26/I26-1</f>
-        <v>7.2727272727272751E-2</v>
+        <v>0.10945273631840813</v>
       </c>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -20568,34 +20827,50 @@
         <f>Z25/V25-1</f>
         <v>-1.3076336631871537</v>
       </c>
-      <c r="AA35" s="147">
-        <f t="shared" ref="AA35" si="65">AA25/W25-1</f>
+      <c r="AA35" s="4">
+        <f t="shared" ref="AA35" si="83">AA25/W25-1</f>
         <v>6.5241143293568742</v>
       </c>
-      <c r="AB35" s="147">
-        <f t="shared" ref="AB35" si="66">AB25/X25-1</f>
+      <c r="AB35" s="4">
+        <f t="shared" ref="AB35" si="84">AB25/X25-1</f>
         <v>-2.7443685108425879</v>
       </c>
-      <c r="AC35" s="7">
-        <f t="shared" ref="AC35" si="67">AC25/Y25-1</f>
+      <c r="AC35" s="158">
+        <f t="shared" ref="AC35" si="85">AC25/Y25-1</f>
         <v>37.029984680471699</v>
       </c>
-      <c r="AD35" s="147">
-        <f>AD26/Z25-1</f>
-        <v>1.5104634394904455</v>
-      </c>
-      <c r="AE35" s="147">
-        <f>AE26/AA25-1</f>
-        <v>1.0206691489361703</v>
-      </c>
-    </row>
-    <row r="36" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD35" s="158">
+        <f t="shared" ref="AD35" si="86">AD25/Z25-1</f>
+        <v>1.1084397501326015</v>
+      </c>
+      <c r="AE35" s="158">
+        <f t="shared" ref="AE35" si="87">AE25/AA25-1</f>
+        <v>1.0427177128217631</v>
+      </c>
+      <c r="AF35" s="7">
+        <f t="shared" ref="AF35" si="88">AF25/AB25-1</f>
+        <v>2.6566116811951659</v>
+      </c>
+      <c r="AG35" s="158" t="e">
+        <f t="shared" ref="AG35" si="89">AG25/AC25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AH35" s="158" t="e">
+        <f t="shared" ref="AH35" si="90">AH25/AD25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI35" s="158" t="e">
+        <f t="shared" ref="AI35" si="91">AI25/AE25-1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="39"/>
       <c r="G36" s="39"/>
-      <c r="H36" s="156"/>
+      <c r="H36" s="127"/>
       <c r="I36" s="49"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
@@ -20611,13 +20886,13 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:35" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="39"/>
       <c r="G37" s="39"/>
-      <c r="H37" s="156"/>
+      <c r="H37" s="127"/>
       <c r="I37" s="49"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
@@ -20632,129 +20907,145 @@
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
-      <c r="AB37" s="161" t="s">
+      <c r="AB37" s="141" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="38" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB38" s="141"/>
+    </row>
+    <row r="39" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB39" s="141"/>
+      <c r="AC39" s="152" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AB38" s="161"/>
-    </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AB39" s="161"/>
-      <c r="AC39" s="13" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="40" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="11">
-        <f t="shared" ref="C40:F40" si="68">C41+C42</f>
+        <f t="shared" ref="C40:F40" si="92">C41+C42</f>
         <v>0</v>
       </c>
       <c r="D40" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="92"/>
         <v>6317.2889999999998</v>
       </c>
       <c r="E40" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="92"/>
         <v>10245.896000000001</v>
       </c>
       <c r="F40" s="11">
-        <f t="shared" si="68"/>
+        <f t="shared" si="92"/>
         <v>9334</v>
       </c>
-      <c r="G40" s="142">
+      <c r="G40" s="11">
         <f>G41+G42</f>
         <v>9283</v>
       </c>
       <c r="H40" s="14">
-        <f t="shared" ref="H40:J40" si="69">H41+H42</f>
+        <f t="shared" ref="H40:J40" si="93">H41+H42</f>
         <v>9056</v>
       </c>
-      <c r="I40" s="142">
-        <f t="shared" si="69"/>
+      <c r="I40" s="11">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="J40" s="142">
-        <f t="shared" si="69"/>
+      <c r="J40" s="11">
+        <f t="shared" si="93"/>
         <v>0</v>
       </c>
       <c r="N40" s="11">
-        <f t="shared" ref="N40" si="70">N41+N42</f>
+        <f t="shared" ref="N40" si="94">N41+N42</f>
         <v>0</v>
       </c>
       <c r="O40" s="11">
-        <f t="shared" ref="O40" si="71">O41+O42</f>
+        <f t="shared" ref="O40" si="95">O41+O42</f>
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <f t="shared" ref="P40" si="72">P41+P42</f>
+        <f t="shared" ref="P40" si="96">P41+P42</f>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <f t="shared" ref="Q40" si="73">Q41+Q42</f>
+        <f t="shared" ref="Q40" si="97">Q41+Q42</f>
         <v>10245.896000000001</v>
       </c>
       <c r="R40" s="11">
-        <f t="shared" ref="R40" si="74">R41+R42</f>
+        <f t="shared" ref="R40" si="98">R41+R42</f>
         <v>10649</v>
       </c>
       <c r="S40" s="11">
-        <f t="shared" ref="S40" si="75">S41+S42</f>
+        <f t="shared" ref="S40" si="99">S41+S42</f>
         <v>9382</v>
       </c>
       <c r="T40" s="11">
-        <f t="shared" ref="T40" si="76">T41+T42</f>
+        <f t="shared" ref="T40" si="100">T41+T42</f>
         <v>9141</v>
       </c>
       <c r="U40" s="11">
-        <f t="shared" ref="U40" si="77">U41+U42</f>
+        <f t="shared" ref="U40" si="101">U41+U42</f>
         <v>9334</v>
       </c>
       <c r="V40" s="11">
-        <f t="shared" ref="V40" si="78">V41+V42</f>
+        <f t="shared" ref="V40" si="102">V41+V42</f>
         <v>9672</v>
       </c>
       <c r="W40" s="11">
-        <f t="shared" ref="W40" si="79">W41+W42</f>
+        <f t="shared" ref="W40" si="103">W41+W42</f>
         <v>10049</v>
       </c>
       <c r="X40" s="11">
-        <f t="shared" ref="X40" si="80">X41+X42</f>
+        <f t="shared" ref="X40" si="104">X41+X42</f>
         <v>8337</v>
       </c>
       <c r="Y40" s="11">
-        <f t="shared" ref="Y40" si="81">Y41+Y42</f>
+        <f t="shared" ref="Y40" si="105">Y41+Y42</f>
         <v>9283</v>
       </c>
       <c r="Z40" s="11">
-        <f t="shared" ref="Z40" si="82">Z41+Z42</f>
+        <f t="shared" ref="Z40" si="106">Z41+Z42</f>
         <v>9238</v>
       </c>
-      <c r="AA40" s="142">
-        <f t="shared" ref="AA40:AE40" si="83">AA41+AA42</f>
+      <c r="AA40" s="11">
+        <f t="shared" ref="AA40:AI40" si="107">AA41+AA42</f>
         <v>9108</v>
       </c>
-      <c r="AB40" s="157">
-        <f t="shared" si="83"/>
+      <c r="AB40" s="128">
+        <f t="shared" si="107"/>
         <v>10158</v>
       </c>
-      <c r="AC40" s="14">
-        <f t="shared" si="83"/>
+      <c r="AC40" s="155">
+        <f t="shared" si="107"/>
         <v>9056</v>
       </c>
       <c r="AD40" s="11">
-        <f t="shared" si="83"/>
+        <f t="shared" si="107"/>
+        <v>8858</v>
+      </c>
+      <c r="AE40" s="11">
+        <f t="shared" si="107"/>
+        <v>13101</v>
+      </c>
+      <c r="AF40" s="14">
+        <f t="shared" si="107"/>
+        <v>12774</v>
+      </c>
+      <c r="AG40" s="11">
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="AE40" s="11">
-        <f t="shared" si="83"/>
+      <c r="AH40" s="11">
+        <f t="shared" si="107"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AI40" s="11">
+        <f t="shared" si="107"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>24</v>
       </c>
@@ -20768,7 +21059,7 @@
       <c r="F41" s="10">
         <v>6339</v>
       </c>
-      <c r="G41" s="144">
+      <c r="G41" s="10">
         <v>4835</v>
       </c>
       <c r="H41" s="15">
@@ -20811,19 +21102,28 @@
       <c r="Z41" s="10">
         <v>4717</v>
       </c>
-      <c r="AA41" s="141">
+      <c r="AA41">
         <v>4524</v>
       </c>
-      <c r="AB41" s="158">
+      <c r="AB41" s="129">
         <v>4611</v>
       </c>
-      <c r="AC41" s="15">
+      <c r="AC41" s="154">
         <v>4332</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD41" s="161">
+        <v>4416</v>
+      </c>
+      <c r="AE41" s="161">
+        <v>4162</v>
+      </c>
+      <c r="AF41" s="15">
+        <v>4331</v>
+      </c>
+    </row>
+    <row r="42" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10">
@@ -20835,18 +21135,18 @@
       <c r="F42" s="10">
         <v>2995</v>
       </c>
-      <c r="G42" s="144">
+      <c r="G42" s="10">
         <v>4448</v>
       </c>
       <c r="H42" s="15">
-        <f t="shared" ref="H42:H51" si="84">AC42</f>
+        <f t="shared" ref="H42:H51" si="108">AC42</f>
         <v>4724</v>
       </c>
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
       <c r="P42" s="10"/>
       <c r="Q42" s="10">
-        <f t="shared" ref="Q42:Q51" si="85">E42</f>
+        <f t="shared" ref="Q42:Q51" si="109">E42</f>
         <v>3992.4189999999999</v>
       </c>
       <c r="R42" s="10">
@@ -20859,7 +21159,7 @@
         <v>2954</v>
       </c>
       <c r="U42" s="10">
-        <f t="shared" ref="U42:U51" si="86">F42</f>
+        <f t="shared" ref="U42:U51" si="110">F42</f>
         <v>2995</v>
       </c>
       <c r="V42" s="10">
@@ -20872,25 +21172,34 @@
         <v>3448</v>
       </c>
       <c r="Y42" s="10">
-        <f t="shared" ref="Y42:Y51" si="87">G42</f>
+        <f t="shared" ref="Y42:Y51" si="111">G42</f>
         <v>4448</v>
       </c>
       <c r="Z42" s="10">
         <v>4521</v>
       </c>
-      <c r="AA42" s="141">
+      <c r="AA42">
         <v>4584</v>
       </c>
-      <c r="AB42" s="158">
+      <c r="AB42" s="129">
         <v>5547</v>
       </c>
-      <c r="AC42" s="15">
+      <c r="AC42" s="154">
         <v>4724</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD42" s="161">
+        <v>4442</v>
+      </c>
+      <c r="AE42" s="161">
+        <v>8939</v>
+      </c>
+      <c r="AF42" s="15">
+        <v>8443</v>
+      </c>
+    </row>
+    <row r="43" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10">
@@ -20902,18 +21211,18 @@
       <c r="F43" s="10">
         <v>76</v>
       </c>
-      <c r="G43" s="144">
+      <c r="G43" s="10">
         <v>89</v>
       </c>
       <c r="H43" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>471</v>
       </c>
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
       <c r="P43" s="10"/>
       <c r="Q43" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>88.325999999999993</v>
       </c>
       <c r="R43" s="10">
@@ -20926,7 +21235,7 @@
         <v>75</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>76</v>
       </c>
       <c r="V43" s="10">
@@ -20939,25 +21248,34 @@
         <v>63</v>
       </c>
       <c r="Y43" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>89</v>
       </c>
       <c r="Z43" s="10">
         <v>207</v>
       </c>
-      <c r="AA43" s="141">
+      <c r="AA43">
         <v>149</v>
       </c>
-      <c r="AB43" s="158">
+      <c r="AB43" s="129">
         <v>139</v>
       </c>
-      <c r="AC43" s="15">
+      <c r="AC43" s="154">
         <v>471</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD43" s="161">
+        <v>267</v>
+      </c>
+      <c r="AE43" s="161">
+        <v>374</v>
+      </c>
+      <c r="AF43" s="15">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="44" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10">
@@ -20969,18 +21287,18 @@
       <c r="F44" s="10">
         <v>3218</v>
       </c>
-      <c r="G44" s="144">
+      <c r="G44" s="10">
         <v>3495</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>8239</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
       <c r="P44" s="10"/>
       <c r="Q44" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>6638.9</v>
       </c>
       <c r="R44" s="10">
@@ -20993,7 +21311,7 @@
         <v>4046</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>3218</v>
       </c>
       <c r="V44" s="10">
@@ -21006,25 +21324,34 @@
         <v>3704</v>
       </c>
       <c r="Y44" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>3495</v>
       </c>
       <c r="Z44" s="10">
         <v>4303</v>
       </c>
-      <c r="AA44" s="141">
+      <c r="AA44">
         <v>5040</v>
       </c>
-      <c r="AB44" s="158">
+      <c r="AB44" s="129">
         <v>5546</v>
       </c>
-      <c r="AC44" s="15">
+      <c r="AC44" s="154">
         <v>8239</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD44" s="161">
+        <v>9167</v>
+      </c>
+      <c r="AE44" s="161">
+        <v>9685</v>
+      </c>
+      <c r="AF44" s="15">
+        <v>14390</v>
+      </c>
+    </row>
+    <row r="45" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -21032,18 +21359,18 @@
       <c r="F45" s="10">
         <v>517</v>
       </c>
-      <c r="G45" s="144">
+      <c r="G45" s="10">
         <v>1602</v>
       </c>
       <c r="H45" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>3236</v>
       </c>
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R45" s="10"/>
@@ -21054,7 +21381,7 @@
         <v>139</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>517</v>
       </c>
       <c r="V45" s="10">
@@ -21067,25 +21394,34 @@
         <v>1204</v>
       </c>
       <c r="Y45" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>1602</v>
       </c>
       <c r="Z45" s="10">
         <v>2107</v>
       </c>
-      <c r="AA45" s="141">
+      <c r="AA45">
         <v>2217</v>
       </c>
-      <c r="AB45" s="158">
+      <c r="AB45" s="129">
         <v>3704</v>
       </c>
-      <c r="AC45" s="15">
+      <c r="AC45" s="154">
         <v>3236</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD45" s="161">
+        <v>4114</v>
+      </c>
+      <c r="AE45" s="161">
+        <v>6159</v>
+      </c>
+      <c r="AF45" s="15">
+        <v>6607</v>
+      </c>
+    </row>
+    <row r="46" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10">
@@ -21097,18 +21433,18 @@
       <c r="F46" s="10">
         <v>186</v>
       </c>
-      <c r="G46" s="144">
+      <c r="G46" s="10">
         <v>338</v>
       </c>
       <c r="H46" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>489</v>
       </c>
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
       <c r="P46" s="10"/>
       <c r="Q46" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>327.91699999999997</v>
       </c>
       <c r="R46" s="10">
@@ -21121,7 +21457,7 @@
         <v>201</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>186</v>
       </c>
       <c r="V46" s="10">
@@ -21134,25 +21470,34 @@
         <v>275</v>
       </c>
       <c r="Y46" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>338</v>
       </c>
       <c r="Z46" s="10">
         <v>585</v>
       </c>
-      <c r="AA46" s="141">
+      <c r="AA46">
         <v>551</v>
       </c>
-      <c r="AB46" s="158">
+      <c r="AB46" s="129">
         <v>464</v>
       </c>
-      <c r="AC46" s="15">
+      <c r="AC46" s="154">
         <v>489</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD46" s="161">
+        <v>641</v>
+      </c>
+      <c r="AE46" s="161">
+        <v>720</v>
+      </c>
+      <c r="AF46" s="15">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="47" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -21160,18 +21505,18 @@
       <c r="F47" s="10">
         <v>8431</v>
       </c>
-      <c r="G47" s="144">
+      <c r="G47" s="10">
         <v>14708</v>
       </c>
       <c r="H47" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>0</v>
       </c>
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
       <c r="P47" s="10"/>
       <c r="Q47" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R47" s="10"/>
@@ -21182,7 +21527,7 @@
         <v>9361</v>
       </c>
       <c r="U47" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>8431</v>
       </c>
       <c r="V47" s="10">
@@ -21195,23 +21540,24 @@
         <v>10183</v>
       </c>
       <c r="Y47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>14708</v>
       </c>
       <c r="Z47" s="10">
         <v>26223</v>
       </c>
-      <c r="AA47" s="141">
+      <c r="AA47">
         <v>20643</v>
       </c>
-      <c r="AB47" s="158">
+      <c r="AB47" s="129">
         <v>19456</v>
       </c>
-      <c r="AC47" s="15"/>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AC47" s="154"/>
+      <c r="AF47" s="15"/>
+    </row>
+    <row r="48" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10">
@@ -21223,18 +21569,18 @@
       <c r="F48" s="10">
         <v>997</v>
       </c>
-      <c r="G48" s="144">
+      <c r="G48" s="10">
         <v>1592</v>
       </c>
       <c r="H48" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>2530</v>
       </c>
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
       <c r="P48" s="10"/>
       <c r="Q48" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>1834.479</v>
       </c>
       <c r="R48" s="10">
@@ -21247,7 +21593,7 @@
         <v>1029</v>
       </c>
       <c r="U48" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>997</v>
       </c>
       <c r="V48" s="10">
@@ -21260,25 +21606,34 @@
         <v>1396</v>
       </c>
       <c r="Y48" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>1592</v>
       </c>
       <c r="Z48" s="10">
         <v>1975</v>
       </c>
-      <c r="AA48" s="141">
+      <c r="AA48">
         <v>2011</v>
       </c>
-      <c r="AB48" s="158">
+      <c r="AB48" s="129">
         <v>2201</v>
       </c>
-      <c r="AC48" s="15">
+      <c r="AC48" s="154">
         <v>2530</v>
       </c>
-    </row>
-    <row r="49" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD48" s="161">
+        <v>2531</v>
+      </c>
+      <c r="AE48" s="161">
+        <v>3083</v>
+      </c>
+      <c r="AF48" s="15">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="49" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -21286,18 +21641,18 @@
         <v>27.189</v>
       </c>
       <c r="F49" s="10"/>
-      <c r="G49" s="144">
+      <c r="G49" s="10">
         <v>413</v>
       </c>
       <c r="H49" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>75</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
       <c r="P49" s="10"/>
       <c r="Q49" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>27.189</v>
       </c>
       <c r="R49" s="10">
@@ -21310,7 +21665,7 @@
         <v>32</v>
       </c>
       <c r="U49" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>0</v>
       </c>
       <c r="V49" s="10">
@@ -21323,23 +21678,32 @@
         <v>372</v>
       </c>
       <c r="Y49" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>413</v>
       </c>
       <c r="Z49" s="10">
         <v>495</v>
       </c>
-      <c r="AA49" s="141">
+      <c r="AA49">
         <v>503</v>
       </c>
-      <c r="AB49" s="158">
+      <c r="AB49" s="129">
         <v>527</v>
       </c>
-      <c r="AC49" s="15">
+      <c r="AC49" s="154">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD49" s="161">
+        <v>192</v>
+      </c>
+      <c r="AE49" s="161">
+        <v>134</v>
+      </c>
+      <c r="AF49" s="15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>73</v>
       </c>
@@ -21349,18 +21713,18 @@
       <c r="F50" s="10">
         <v>86</v>
       </c>
-      <c r="G50" s="144">
+      <c r="G50" s="10">
         <v>63</v>
       </c>
       <c r="H50" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>100</v>
       </c>
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
       <c r="P50" s="10"/>
       <c r="Q50" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>0</v>
       </c>
       <c r="R50" s="10">
@@ -21371,7 +21735,7 @@
         <v>80</v>
       </c>
       <c r="U50" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>86</v>
       </c>
       <c r="V50" s="10">
@@ -21384,25 +21748,34 @@
         <v>75</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>63</v>
       </c>
       <c r="Z50" s="10">
         <v>64</v>
       </c>
-      <c r="AA50" s="141">
+      <c r="AA50">
         <v>65</v>
       </c>
-      <c r="AB50" s="158">
+      <c r="AB50" s="129">
         <v>86</v>
       </c>
-      <c r="AC50" s="15">
+      <c r="AC50" s="154">
         <v>100</v>
       </c>
-    </row>
-    <row r="51" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD50" s="161">
+        <v>89</v>
+      </c>
+      <c r="AE50" s="161">
+        <v>108</v>
+      </c>
+      <c r="AF50" s="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10">
@@ -21414,18 +21787,18 @@
       <c r="F51" s="10">
         <v>72</v>
       </c>
-      <c r="G51" s="144">
+      <c r="G51" s="10">
         <v>207</v>
       </c>
       <c r="H51" s="15">
-        <f t="shared" si="84"/>
+        <f t="shared" si="108"/>
         <v>509</v>
       </c>
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
       <c r="P51" s="10"/>
       <c r="Q51" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="109"/>
         <v>120.83499999999999</v>
       </c>
       <c r="R51" s="10">
@@ -21438,7 +21811,7 @@
         <v>41</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="110"/>
         <v>72</v>
       </c>
       <c r="V51" s="10">
@@ -21451,25 +21824,37 @@
         <v>130</v>
       </c>
       <c r="Y51" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="111"/>
         <v>207</v>
       </c>
       <c r="Z51" s="10">
         <v>348</v>
       </c>
-      <c r="AA51" s="141">
+      <c r="AA51">
         <f>67+352</f>
         <v>419</v>
       </c>
-      <c r="AB51" s="159">
+      <c r="AB51" s="130">
         <f>73+251</f>
         <v>324</v>
       </c>
-      <c r="AC51" s="15">
+      <c r="AC51" s="154">
         <v>509</v>
       </c>
-    </row>
-    <row r="52" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD51">
+        <f>243+113</f>
+        <v>356</v>
+      </c>
+      <c r="AE51">
+        <f>124+345</f>
+        <v>469</v>
+      </c>
+      <c r="AF51" s="15">
+        <f>161+326</f>
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>61</v>
       </c>
@@ -21489,96 +21874,112 @@
         <f>SUM(F41:F51)</f>
         <v>22917</v>
       </c>
-      <c r="G52" s="142">
+      <c r="G52" s="11">
         <f>SUM(G41:G51)</f>
         <v>31790</v>
       </c>
       <c r="H52" s="14">
-        <f t="shared" ref="H52:J52" si="88">SUM(H41:H51)</f>
+        <f t="shared" ref="H52:J52" si="112">SUM(H41:H51)</f>
         <v>24705</v>
       </c>
-      <c r="I52" s="142">
-        <f t="shared" si="88"/>
+      <c r="I52" s="11">
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="J52" s="142">
-        <f t="shared" si="88"/>
+      <c r="J52" s="11">
+        <f t="shared" si="112"/>
         <v>0</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" ref="N52:Y52" si="89">SUM(N41:N51)</f>
+        <f t="shared" ref="N52:Y52" si="113">SUM(N41:N51)</f>
         <v>0</v>
       </c>
       <c r="O52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="P52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>19283.541999999998</v>
       </c>
       <c r="R52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>18355</v>
       </c>
       <c r="S52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>24045</v>
       </c>
       <c r="T52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>24145</v>
       </c>
       <c r="U52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>22917</v>
       </c>
       <c r="V52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>27228</v>
       </c>
       <c r="W52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>28106</v>
       </c>
       <c r="X52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>25739</v>
       </c>
       <c r="Y52" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="113"/>
         <v>31790</v>
       </c>
       <c r="Z52" s="11">
-        <f t="shared" ref="Z52" si="90">SUM(Z41:Z51)</f>
+        <f t="shared" ref="Z52" si="114">SUM(Z41:Z51)</f>
         <v>45545</v>
       </c>
-      <c r="AA52" s="142">
-        <f t="shared" ref="AA52" si="91">SUM(AA41:AA51)</f>
+      <c r="AA52" s="11">
+        <f t="shared" ref="AA52" si="115">SUM(AA41:AA51)</f>
         <v>40706</v>
       </c>
-      <c r="AB52" s="157">
-        <f t="shared" ref="AB52:AE52" si="92">SUM(AB41:AB51)</f>
+      <c r="AB52" s="128">
+        <f t="shared" ref="AB52:AI52" si="116">SUM(AB41:AB51)</f>
         <v>42605</v>
       </c>
-      <c r="AC52" s="14">
-        <f t="shared" si="92"/>
+      <c r="AC52" s="155">
+        <f t="shared" si="116"/>
         <v>24705</v>
       </c>
       <c r="AD52" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="116"/>
+        <v>26215</v>
+      </c>
+      <c r="AE52" s="11">
+        <f t="shared" si="116"/>
+        <v>33833</v>
+      </c>
+      <c r="AF52" s="14">
+        <f t="shared" si="116"/>
+        <v>39979</v>
+      </c>
+      <c r="AG52" s="11">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="AE52" s="11">
-        <f t="shared" si="92"/>
+      <c r="AH52" s="11">
+        <f t="shared" si="116"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AI52" s="11">
+        <f t="shared" si="116"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>74</v>
       </c>
@@ -21592,18 +21993,18 @@
       <c r="F53" s="10">
         <v>146</v>
       </c>
-      <c r="G53" s="144">
+      <c r="G53" s="10">
         <v>120</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" ref="H53:H58" si="93">AC53</f>
+        <f t="shared" ref="H53:H58" si="117">AC53</f>
         <v>139</v>
       </c>
       <c r="N53" s="10"/>
       <c r="O53" s="10"/>
       <c r="P53" s="10"/>
       <c r="Q53" s="10">
-        <f t="shared" ref="Q53:Q58" si="94">E53</f>
+        <f t="shared" ref="Q53:Q58" si="118">E53</f>
         <v>146.41900000000001</v>
       </c>
       <c r="R53" s="10">
@@ -21616,7 +22017,7 @@
         <v>151</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" ref="U53:U58" si="95">F53</f>
+        <f t="shared" ref="U53:U58" si="119">F53</f>
         <v>146</v>
       </c>
       <c r="V53" s="10">
@@ -21629,23 +22030,32 @@
         <v>123</v>
       </c>
       <c r="Y53" s="10">
-        <f t="shared" ref="Y53:Y58" si="96">G53</f>
+        <f t="shared" ref="Y53:Y58" si="120">G53</f>
         <v>120</v>
       </c>
       <c r="Z53" s="10">
         <v>122</v>
       </c>
-      <c r="AA53" s="144">
+      <c r="AA53" s="10">
         <v>123</v>
       </c>
-      <c r="AB53" s="158">
+      <c r="AB53" s="129">
         <v>133</v>
       </c>
-      <c r="AC53" s="15">
+      <c r="AC53" s="154">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD53" s="161">
+        <v>140</v>
+      </c>
+      <c r="AE53" s="161">
+        <v>149</v>
+      </c>
+      <c r="AF53" s="15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>26</v>
       </c>
@@ -21657,18 +22067,18 @@
       <c r="F54" s="10">
         <v>100</v>
       </c>
-      <c r="G54" s="144">
+      <c r="G54" s="10">
         <v>175</v>
       </c>
       <c r="H54" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>179</v>
       </c>
       <c r="N54" s="10"/>
       <c r="O54" s="10"/>
       <c r="P54" s="10"/>
       <c r="Q54" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>100.521</v>
       </c>
       <c r="R54" s="10">
@@ -21681,7 +22091,7 @@
         <v>100</v>
       </c>
       <c r="U54" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>100</v>
       </c>
       <c r="V54" s="10">
@@ -21694,25 +22104,34 @@
         <v>164</v>
       </c>
       <c r="Y54" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>175</v>
       </c>
       <c r="Z54" s="10">
         <v>175</v>
       </c>
-      <c r="AA54" s="144">
+      <c r="AA54" s="10">
         <v>179</v>
       </c>
-      <c r="AB54" s="158">
+      <c r="AB54" s="129">
         <v>179</v>
       </c>
-      <c r="AC54" s="15">
+      <c r="AC54" s="154">
         <v>179</v>
       </c>
-    </row>
-    <row r="55" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD54" s="161">
+        <v>292</v>
+      </c>
+      <c r="AE54" s="161">
+        <v>383</v>
+      </c>
+      <c r="AF54" s="15">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10">
@@ -21724,18 +22143,18 @@
       <c r="F55" s="10">
         <v>25</v>
       </c>
-      <c r="G55" s="144">
+      <c r="G55" s="10">
         <v>48</v>
       </c>
       <c r="H55" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>38</v>
       </c>
       <c r="N55" s="10"/>
       <c r="O55" s="10"/>
       <c r="P55" s="10"/>
       <c r="Q55" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>34.106999999999999</v>
       </c>
       <c r="R55" s="10">
@@ -21748,7 +22167,7 @@
         <v>27</v>
       </c>
       <c r="U55" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>25</v>
       </c>
       <c r="V55" s="10">
@@ -21761,25 +22180,34 @@
         <v>53</v>
       </c>
       <c r="Y55" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>48</v>
       </c>
       <c r="Z55" s="10">
         <v>46</v>
       </c>
-      <c r="AA55" s="144">
+      <c r="AA55" s="10">
         <v>45</v>
       </c>
-      <c r="AB55" s="158">
+      <c r="AB55" s="129">
         <v>39</v>
       </c>
-      <c r="AC55" s="15">
+      <c r="AC55" s="154">
         <v>38</v>
       </c>
-    </row>
-    <row r="56" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD55" s="161">
+        <v>109</v>
+      </c>
+      <c r="AE55" s="161">
+        <v>191</v>
+      </c>
+      <c r="AF55" s="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="56" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10">
@@ -21789,18 +22217,18 @@
         <v>23.773</v>
       </c>
       <c r="F56" s="10"/>
-      <c r="G56" s="144">
+      <c r="G56" s="10">
         <v>73</v>
       </c>
       <c r="H56" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>0</v>
       </c>
       <c r="N56" s="10"/>
       <c r="O56" s="10"/>
       <c r="P56" s="10"/>
       <c r="Q56" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>23.773</v>
       </c>
       <c r="R56" s="10">
@@ -21815,7 +22243,7 @@
         <v>122</v>
       </c>
       <c r="U56" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>0</v>
       </c>
       <c r="V56" s="10">
@@ -21828,23 +22256,25 @@
         <v>118</v>
       </c>
       <c r="Y56" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>73</v>
       </c>
       <c r="Z56" s="10">
         <v>10</v>
       </c>
-      <c r="AA56" s="144">
+      <c r="AA56" s="10">
         <v>2</v>
       </c>
-      <c r="AB56" s="158">
+      <c r="AB56" s="129">
         <v>0</v>
       </c>
-      <c r="AC56" s="15"/>
-    </row>
-    <row r="57" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AC56" s="154"/>
+      <c r="AD56" s="161"/>
+      <c r="AF56" s="15"/>
+    </row>
+    <row r="57" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -21852,18 +22282,18 @@
       <c r="F57" s="10">
         <v>17</v>
       </c>
-      <c r="G57" s="144">
+      <c r="G57" s="10">
         <v>4</v>
       </c>
       <c r="H57" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>195</v>
       </c>
       <c r="N57" s="10"/>
       <c r="O57" s="10"/>
       <c r="P57" s="10"/>
       <c r="Q57" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>0</v>
       </c>
       <c r="R57" s="10">
@@ -21877,7 +22307,7 @@
         <v>27</v>
       </c>
       <c r="U57" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>17</v>
       </c>
       <c r="V57" s="10">
@@ -21890,21 +22320,30 @@
         <v>3</v>
       </c>
       <c r="Y57" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>4</v>
       </c>
       <c r="Z57" s="10"/>
-      <c r="AA57" s="144">
+      <c r="AA57" s="10">
         <v>159</v>
       </c>
-      <c r="AB57" s="158">
+      <c r="AB57" s="129">
         <v>159</v>
       </c>
-      <c r="AC57" s="15">
+      <c r="AC57" s="154">
         <v>195</v>
       </c>
-    </row>
-    <row r="58" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD57" s="161">
+        <v>238</v>
+      </c>
+      <c r="AE57" s="163">
+        <v>267</v>
+      </c>
+      <c r="AF57" s="15">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="58" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>25</v>
       </c>
@@ -21918,18 +22357,18 @@
       <c r="F58" s="10">
         <v>132</v>
       </c>
-      <c r="G58" s="144">
+      <c r="G58" s="10">
         <v>122</v>
       </c>
       <c r="H58" s="15">
-        <f t="shared" si="93"/>
+        <f t="shared" si="117"/>
         <v>533</v>
       </c>
       <c r="N58" s="10"/>
       <c r="O58" s="10"/>
       <c r="P58" s="10"/>
       <c r="Q58" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="118"/>
         <v>180.81700000000001</v>
       </c>
       <c r="R58" s="10">
@@ -21942,7 +22381,7 @@
         <v>29</v>
       </c>
       <c r="U58" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="119"/>
         <v>132</v>
       </c>
       <c r="V58" s="10">
@@ -21955,23 +22394,32 @@
         <v>118</v>
       </c>
       <c r="Y58" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="120"/>
         <v>122</v>
       </c>
       <c r="Z58" s="10">
         <v>190</v>
       </c>
-      <c r="AA58" s="144">
+      <c r="AA58" s="10">
         <v>132</v>
       </c>
-      <c r="AB58" s="158">
+      <c r="AB58" s="129">
         <v>130</v>
       </c>
-      <c r="AC58" s="15">
+      <c r="AC58" s="154">
         <v>533</v>
       </c>
-    </row>
-    <row r="59" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD58" s="163">
+        <v>523</v>
+      </c>
+      <c r="AE58" s="163">
+        <v>501</v>
+      </c>
+      <c r="AF58" s="14">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="59" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
         <v>27</v>
       </c>
@@ -21991,96 +22439,112 @@
         <f>SUM(F52:F58)</f>
         <v>23337</v>
       </c>
-      <c r="G59" s="142">
+      <c r="G59" s="11">
         <f>SUM(G52:G58)</f>
         <v>32332</v>
       </c>
       <c r="H59" s="14">
-        <f t="shared" ref="H59:J59" si="97">SUM(H52:H58)</f>
+        <f t="shared" ref="H59:J59" si="121">SUM(H52:H58)</f>
         <v>25789</v>
       </c>
-      <c r="I59" s="142">
-        <f t="shared" si="97"/>
+      <c r="I59" s="11">
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="J59" s="142">
-        <f t="shared" si="97"/>
+      <c r="J59" s="11">
+        <f t="shared" si="121"/>
         <v>0</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" ref="N59:Y59" si="98">SUM(N52:N58)</f>
+        <f t="shared" ref="N59:Y59" si="122">SUM(N52:N58)</f>
         <v>0</v>
       </c>
       <c r="O59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="P59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>0</v>
       </c>
       <c r="Q59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>19769.179</v>
       </c>
       <c r="R59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>18872</v>
       </c>
       <c r="S59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>24548</v>
       </c>
       <c r="T59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>24601</v>
       </c>
       <c r="U59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>23337</v>
       </c>
       <c r="V59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>27825</v>
       </c>
       <c r="W59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>28660</v>
       </c>
       <c r="X59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>26318</v>
       </c>
       <c r="Y59" s="11">
-        <f t="shared" si="98"/>
+        <f t="shared" si="122"/>
         <v>32332</v>
       </c>
       <c r="Z59" s="11">
-        <f t="shared" ref="Z59:AE59" si="99">SUM(Z52:Z58)</f>
+        <f t="shared" ref="Z59:AI59" si="123">SUM(Z52:Z58)</f>
         <v>46088</v>
       </c>
-      <c r="AA59" s="142">
-        <f t="shared" si="99"/>
+      <c r="AA59" s="11">
+        <f t="shared" si="123"/>
         <v>41346</v>
       </c>
-      <c r="AB59" s="157">
-        <f t="shared" si="99"/>
+      <c r="AB59" s="128">
+        <f t="shared" si="123"/>
         <v>43245</v>
       </c>
-      <c r="AC59" s="14">
-        <f t="shared" si="99"/>
+      <c r="AC59" s="155">
+        <f t="shared" si="123"/>
         <v>25789</v>
       </c>
       <c r="AD59" s="11">
-        <f t="shared" si="99"/>
+        <f t="shared" si="123"/>
+        <v>27517</v>
+      </c>
+      <c r="AE59" s="11">
+        <f t="shared" si="123"/>
+        <v>35324</v>
+      </c>
+      <c r="AF59" s="14">
+        <f t="shared" si="123"/>
+        <v>41452</v>
+      </c>
+      <c r="AG59" s="11">
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="AE59" s="11">
-        <f t="shared" si="99"/>
+      <c r="AH59" s="11">
+        <f t="shared" si="123"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AI59" s="11">
+        <f t="shared" si="123"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>29</v>
       </c>
@@ -22094,18 +22558,18 @@
       <c r="F60" s="10">
         <v>185</v>
       </c>
-      <c r="G60" s="144">
+      <c r="G60" s="10">
         <v>384</v>
       </c>
       <c r="H60" s="15">
-        <f t="shared" ref="H60:H65" si="100">AC60</f>
+        <f t="shared" ref="H60:H65" si="124">AC60</f>
         <v>397</v>
       </c>
       <c r="N60" s="10"/>
       <c r="O60" s="10"/>
       <c r="P60" s="10"/>
       <c r="Q60" s="10">
-        <f t="shared" ref="Q60:Q65" si="101">E60</f>
+        <f t="shared" ref="Q60:Q65" si="125">E60</f>
         <v>252.31299999999999</v>
       </c>
       <c r="R60" s="10">
@@ -22118,7 +22582,7 @@
         <v>203</v>
       </c>
       <c r="U60" s="10">
-        <f t="shared" ref="U60:U65" si="102">F60</f>
+        <f t="shared" ref="U60:U65" si="126">F60</f>
         <v>185</v>
       </c>
       <c r="V60" s="10">
@@ -22131,25 +22595,34 @@
         <v>373</v>
       </c>
       <c r="Y60" s="10">
-        <f t="shared" ref="Y60:Y65" si="103">G60</f>
+        <f t="shared" ref="Y60:Y65" si="127">G60</f>
         <v>384</v>
       </c>
       <c r="Z60" s="10">
         <v>351</v>
       </c>
-      <c r="AA60" s="144">
+      <c r="AA60" s="10">
         <v>386</v>
       </c>
-      <c r="AB60" s="158">
+      <c r="AB60" s="129">
         <v>443</v>
       </c>
-      <c r="AC60" s="15">
+      <c r="AC60" s="154">
         <v>397</v>
       </c>
-    </row>
-    <row r="61" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD60" s="161">
+        <v>319</v>
+      </c>
+      <c r="AE60" s="164">
+        <v>369</v>
+      </c>
+      <c r="AF60" s="15">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="61" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10">
@@ -22161,18 +22634,18 @@
       <c r="F61" s="10">
         <v>4701</v>
       </c>
-      <c r="G61" s="144">
+      <c r="G61" s="10">
         <v>5097</v>
       </c>
       <c r="H61" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>7448</v>
       </c>
       <c r="N61" s="10"/>
       <c r="O61" s="10"/>
       <c r="P61" s="10"/>
       <c r="Q61" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>6475.7280000000001</v>
       </c>
       <c r="R61" s="10">
@@ -22185,7 +22658,7 @@
         <v>5396</v>
       </c>
       <c r="U61" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="126"/>
         <v>4701</v>
       </c>
       <c r="V61" s="10">
@@ -22198,25 +22671,34 @@
         <v>4325</v>
       </c>
       <c r="Y61" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="127"/>
         <v>5097</v>
       </c>
       <c r="Z61" s="10">
         <v>6074</v>
       </c>
-      <c r="AA61" s="144">
+      <c r="AA61" s="10">
         <v>5789</v>
       </c>
-      <c r="AB61" s="158">
+      <c r="AB61" s="129">
         <v>6264</v>
       </c>
-      <c r="AC61" s="15">
+      <c r="AC61" s="154">
         <v>7448</v>
       </c>
-    </row>
-    <row r="62" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD61" s="161">
+        <v>7116</v>
+      </c>
+      <c r="AE61" s="164">
+        <v>10511</v>
+      </c>
+      <c r="AF61" s="15">
+        <v>12317</v>
+      </c>
+    </row>
+    <row r="62" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10">
@@ -22228,18 +22710,18 @@
       <c r="F62" s="10">
         <v>1834</v>
       </c>
-      <c r="G62" s="144">
+      <c r="G62" s="10">
         <v>3547</v>
       </c>
       <c r="H62" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>7463</v>
       </c>
       <c r="N62" s="10"/>
       <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>3651.0349999999999</v>
       </c>
       <c r="R62" s="10">
@@ -22252,7 +22734,7 @@
         <v>1423</v>
       </c>
       <c r="U62" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="126"/>
         <v>1834</v>
       </c>
       <c r="V62" s="10">
@@ -22265,25 +22747,34 @@
         <v>3245</v>
       </c>
       <c r="Y62" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="127"/>
         <v>3547</v>
       </c>
       <c r="Z62" s="10">
         <v>4215</v>
       </c>
-      <c r="AA62" s="144">
+      <c r="AA62" s="10">
         <v>5091</v>
       </c>
-      <c r="AB62" s="158">
+      <c r="AB62" s="129">
         <v>7306</v>
       </c>
-      <c r="AC62" s="15">
+      <c r="AC62" s="154">
         <v>7463</v>
       </c>
-    </row>
-    <row r="63" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD62" s="161">
+        <v>9098</v>
+      </c>
+      <c r="AE62" s="161">
+        <v>12640</v>
+      </c>
+      <c r="AF62" s="15">
+        <v>15666</v>
+      </c>
+    </row>
+    <row r="63" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -22291,18 +22782,18 @@
       <c r="F63" s="10">
         <v>8431</v>
       </c>
-      <c r="G63" s="144">
+      <c r="G63" s="10">
         <v>14708</v>
       </c>
       <c r="H63" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>0</v>
       </c>
       <c r="N63" s="10"/>
       <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>0</v>
       </c>
       <c r="R63" s="10">
@@ -22315,7 +22806,7 @@
         <v>9361</v>
       </c>
       <c r="U63" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="126"/>
         <v>8431</v>
       </c>
       <c r="V63" s="10">
@@ -22328,23 +22819,27 @@
         <v>10183</v>
       </c>
       <c r="Y63" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="127"/>
         <v>14708</v>
       </c>
       <c r="Z63" s="10">
         <v>26223</v>
       </c>
-      <c r="AA63" s="144">
+      <c r="AA63" s="10">
         <v>20643</v>
       </c>
-      <c r="AB63" s="158">
+      <c r="AB63" s="129">
         <v>19456</v>
       </c>
-      <c r="AC63" s="15"/>
-    </row>
-    <row r="64" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AC63" s="154"/>
+      <c r="AE63" s="161">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="15"/>
+    </row>
+    <row r="64" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10">
@@ -22356,18 +22851,18 @@
       <c r="F64" s="10">
         <v>997</v>
       </c>
-      <c r="G64" s="144">
+      <c r="G64" s="10">
         <v>1592</v>
       </c>
       <c r="H64" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>2530</v>
       </c>
       <c r="N64" s="10"/>
       <c r="O64" s="10"/>
       <c r="P64" s="10"/>
       <c r="Q64" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>1834.479</v>
       </c>
       <c r="R64" s="10">
@@ -22380,7 +22875,7 @@
         <v>1029</v>
       </c>
       <c r="U64" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="126"/>
         <v>997</v>
       </c>
       <c r="V64" s="10">
@@ -22393,25 +22888,34 @@
         <v>1396</v>
       </c>
       <c r="Y64" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="127"/>
         <v>1592</v>
       </c>
       <c r="Z64" s="10">
         <v>1975</v>
       </c>
-      <c r="AA64" s="144">
+      <c r="AA64" s="10">
         <v>2011</v>
       </c>
-      <c r="AB64" s="158">
+      <c r="AB64" s="129">
         <v>2201</v>
       </c>
-      <c r="AC64" s="15">
+      <c r="AC64" s="154">
         <v>2530</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD64" s="161">
+        <v>2531</v>
+      </c>
+      <c r="AE64" s="161">
+        <v>3083</v>
+      </c>
+      <c r="AF64" s="15">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="65" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10">
@@ -22423,18 +22927,18 @@
       <c r="F65" s="10">
         <v>105</v>
       </c>
-      <c r="G65" s="144">
+      <c r="G65" s="10">
         <v>217</v>
       </c>
       <c r="H65" s="15">
-        <f t="shared" si="100"/>
+        <f t="shared" si="124"/>
         <v>266</v>
       </c>
       <c r="N65" s="10"/>
       <c r="O65" s="10"/>
       <c r="P65" s="10"/>
       <c r="Q65" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="125"/>
         <v>133.78700000000001</v>
       </c>
       <c r="R65" s="10">
@@ -22449,7 +22953,7 @@
         <v>97</v>
       </c>
       <c r="U65" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="126"/>
         <v>105</v>
       </c>
       <c r="V65" s="10">
@@ -22462,23 +22966,32 @@
         <v>126</v>
       </c>
       <c r="Y65" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="127"/>
         <v>217</v>
       </c>
       <c r="Z65" s="10">
         <v>275</v>
       </c>
-      <c r="AA65" s="144">
+      <c r="AA65" s="10">
         <v>220</v>
       </c>
-      <c r="AB65" s="158">
+      <c r="AB65" s="129">
         <v>288</v>
       </c>
-      <c r="AC65" s="15">
+      <c r="AC65" s="154">
         <v>266</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AD65" s="161">
+        <v>367</v>
+      </c>
+      <c r="AE65" s="161">
+        <v>519</v>
+      </c>
+      <c r="AF65" s="15">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="66" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
@@ -22498,98 +23011,114 @@
         <f>SUM(F60:F65)</f>
         <v>16253</v>
       </c>
-      <c r="G66" s="142">
+      <c r="G66" s="11">
         <f>SUM(G60:G65)</f>
         <v>25545</v>
       </c>
       <c r="H66" s="14">
-        <f t="shared" ref="H66:J66" si="104">SUM(H60:H65)</f>
+        <f t="shared" ref="H66:J66" si="128">SUM(H60:H65)</f>
         <v>18104</v>
       </c>
-      <c r="I66" s="142">
-        <f t="shared" si="104"/>
+      <c r="I66" s="11">
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="J66" s="142">
-        <f t="shared" si="104"/>
+      <c r="J66" s="11">
+        <f t="shared" si="128"/>
         <v>0</v>
       </c>
       <c r="N66" s="11">
-        <f t="shared" ref="N66:Y66" si="105">SUM(N60:N65)</f>
+        <f t="shared" ref="N66:Y66" si="129">SUM(N60:N65)</f>
         <v>0</v>
       </c>
       <c r="O66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="P66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>0</v>
       </c>
       <c r="Q66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>12347.342000000001</v>
       </c>
       <c r="R66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>11581</v>
       </c>
       <c r="S66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>17399</v>
       </c>
       <c r="T66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>17509</v>
       </c>
       <c r="U66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>16253</v>
       </c>
       <c r="V66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>20617</v>
       </c>
       <c r="W66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>21356</v>
       </c>
       <c r="X66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>19648</v>
       </c>
       <c r="Y66" s="11">
-        <f t="shared" si="105"/>
+        <f t="shared" si="129"/>
         <v>25545</v>
       </c>
       <c r="Z66" s="11">
-        <f t="shared" ref="Z66" si="106">SUM(Z60:Z65)</f>
+        <f t="shared" ref="Z66" si="130">SUM(Z60:Z65)</f>
         <v>39113</v>
       </c>
-      <c r="AA66" s="142">
-        <f t="shared" ref="AA66" si="107">SUM(AA60:AA65)</f>
+      <c r="AA66" s="11">
+        <f t="shared" ref="AA66" si="131">SUM(AA60:AA65)</f>
         <v>34140</v>
       </c>
-      <c r="AB66" s="157">
-        <f t="shared" ref="AB66:AE66" si="108">SUM(AB60:AB65)</f>
+      <c r="AB66" s="128">
+        <f t="shared" ref="AB66:AI66" si="132">SUM(AB60:AB65)</f>
         <v>35958</v>
       </c>
-      <c r="AC66" s="14">
-        <f t="shared" si="108"/>
+      <c r="AC66" s="155">
+        <f t="shared" si="132"/>
         <v>18104</v>
       </c>
       <c r="AD66" s="11">
-        <f t="shared" si="108"/>
+        <f t="shared" si="132"/>
+        <v>19431</v>
+      </c>
+      <c r="AE66" s="11">
+        <f t="shared" si="132"/>
+        <v>27122</v>
+      </c>
+      <c r="AF66" s="14">
+        <f t="shared" si="132"/>
+        <v>32762</v>
+      </c>
+      <c r="AG66" s="11">
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="AE66" s="11">
-        <f t="shared" si="108"/>
+      <c r="AH66" s="11">
+        <f t="shared" si="132"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AI66" s="11">
+        <f t="shared" si="132"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10">
@@ -22601,7 +23130,7 @@
       <c r="F67" s="10">
         <v>128</v>
       </c>
-      <c r="G67" s="144">
+      <c r="G67" s="10">
         <v>91</v>
       </c>
       <c r="H67" s="15">
@@ -22644,17 +23173,26 @@
       <c r="Z67" s="10">
         <v>90</v>
       </c>
-      <c r="AA67" s="144">
+      <c r="AA67" s="10">
         <v>84</v>
       </c>
-      <c r="AB67" s="158">
+      <c r="AB67" s="129">
         <v>79</v>
       </c>
-      <c r="AC67" s="15">
+      <c r="AC67" s="154">
         <v>111</v>
       </c>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AD67" s="161">
+        <v>113</v>
+      </c>
+      <c r="AE67" s="161">
+        <v>130</v>
+      </c>
+      <c r="AF67" s="13">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="68" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B68" s="1" t="s">
         <v>28</v>
       </c>
@@ -22674,96 +23212,112 @@
         <f>SUM(F66:F67)</f>
         <v>16381</v>
       </c>
-      <c r="G68" s="142">
+      <c r="G68" s="11">
         <f>SUM(G66:G67)</f>
         <v>25636</v>
       </c>
       <c r="H68" s="14">
-        <f t="shared" ref="H68:J68" si="109">SUM(H66:H67)</f>
+        <f t="shared" ref="H68:J68" si="133">SUM(H66:H67)</f>
         <v>18215</v>
       </c>
-      <c r="I68" s="142">
-        <f t="shared" si="109"/>
+      <c r="I68" s="11">
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
-      <c r="J68" s="142">
-        <f t="shared" si="109"/>
+      <c r="J68" s="11">
+        <f t="shared" si="133"/>
         <v>0</v>
       </c>
       <c r="N68" s="11">
-        <f t="shared" ref="N68:Y68" si="110">SUM(N66:N67)</f>
+        <f t="shared" ref="N68:Y68" si="134">SUM(N66:N67)</f>
         <v>0</v>
       </c>
       <c r="O68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="P68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>12476.087000000001</v>
       </c>
       <c r="R68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>11741</v>
       </c>
       <c r="S68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>17531</v>
       </c>
       <c r="T68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>17647</v>
       </c>
       <c r="U68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>16381</v>
       </c>
       <c r="V68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>20739</v>
       </c>
       <c r="W68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>21473</v>
       </c>
       <c r="X68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>19744</v>
       </c>
       <c r="Y68" s="11">
-        <f t="shared" si="110"/>
+        <f t="shared" si="134"/>
         <v>25636</v>
       </c>
       <c r="Z68" s="11">
-        <f t="shared" ref="Z68" si="111">SUM(Z66:Z67)</f>
+        <f t="shared" ref="Z68" si="135">SUM(Z66:Z67)</f>
         <v>39203</v>
       </c>
-      <c r="AA68" s="142">
-        <f t="shared" ref="AA68" si="112">SUM(AA66:AA67)</f>
+      <c r="AA68" s="11">
+        <f t="shared" ref="AA68" si="136">SUM(AA66:AA67)</f>
         <v>34224</v>
       </c>
-      <c r="AB68" s="157">
-        <f t="shared" ref="AB68:AE68" si="113">SUM(AB66:AB67)</f>
+      <c r="AB68" s="128">
+        <f t="shared" ref="AB68:AE68" si="137">SUM(AB66:AB67)</f>
         <v>36037</v>
       </c>
-      <c r="AC68" s="14">
-        <f t="shared" si="113"/>
+      <c r="AC68" s="155">
+        <f t="shared" si="137"/>
         <v>18215</v>
       </c>
       <c r="AD68" s="11">
-        <f t="shared" si="113"/>
+        <f t="shared" si="137"/>
+        <v>19544</v>
+      </c>
+      <c r="AE68" s="11">
+        <f t="shared" ref="AE68:AI68" si="138">SUM(AE66:AE67)</f>
+        <v>27252</v>
+      </c>
+      <c r="AF68" s="14">
+        <f t="shared" si="138"/>
+        <v>32885</v>
+      </c>
+      <c r="AG68" s="11">
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="AE68" s="11">
-        <f t="shared" si="113"/>
+      <c r="AH68" s="11">
+        <f t="shared" si="138"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="AI68" s="11">
+        <f t="shared" si="138"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>75</v>
       </c>
@@ -22783,101 +23337,117 @@
         <f>F59-F68</f>
         <v>6956</v>
       </c>
-      <c r="G69" s="144">
+      <c r="G69" s="10">
         <f>G59-G68</f>
         <v>6696</v>
       </c>
       <c r="H69" s="15">
-        <f t="shared" ref="H69:J69" si="114">H59-H68</f>
+        <f t="shared" ref="H69:J69" si="139">H59-H68</f>
         <v>7574</v>
       </c>
-      <c r="I69" s="144">
-        <f t="shared" si="114"/>
+      <c r="I69" s="10">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="J69" s="144">
-        <f t="shared" si="114"/>
+      <c r="J69" s="10">
+        <f t="shared" si="139"/>
         <v>0</v>
       </c>
       <c r="N69" s="10">
-        <f t="shared" ref="N69:Y69" si="115">N59-N68</f>
+        <f t="shared" ref="N69:Y69" si="140">N59-N68</f>
         <v>0</v>
       </c>
       <c r="O69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="P69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>0</v>
       </c>
       <c r="Q69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>7293.0919999999987</v>
       </c>
       <c r="R69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>7131</v>
       </c>
       <c r="S69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>7017</v>
       </c>
       <c r="T69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>6954</v>
       </c>
       <c r="U69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>6956</v>
       </c>
       <c r="V69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>7086</v>
       </c>
       <c r="W69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>7187</v>
       </c>
       <c r="X69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>6574</v>
       </c>
       <c r="Y69" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="140"/>
         <v>6696</v>
       </c>
       <c r="Z69" s="10">
-        <f t="shared" ref="Z69" si="116">Z59-Z68</f>
+        <f t="shared" ref="Z69" si="141">Z59-Z68</f>
         <v>6885</v>
       </c>
-      <c r="AA69" s="144">
-        <f t="shared" ref="AA69" si="117">AA59-AA68</f>
+      <c r="AA69" s="10">
+        <f t="shared" ref="AA69" si="142">AA59-AA68</f>
         <v>7122</v>
       </c>
-      <c r="AB69" s="158">
-        <f t="shared" ref="AB69:AE69" si="118">AB59-AB68</f>
+      <c r="AB69" s="129">
+        <f t="shared" ref="AB69:AE69" si="143">AB59-AB68</f>
         <v>7208</v>
       </c>
-      <c r="AC69" s="15">
-        <f t="shared" si="118"/>
+      <c r="AC69" s="154">
+        <f t="shared" si="143"/>
         <v>7574</v>
       </c>
       <c r="AD69" s="10">
-        <f t="shared" si="118"/>
+        <f t="shared" si="143"/>
+        <v>7973</v>
+      </c>
+      <c r="AE69" s="10">
+        <f t="shared" ref="AE69:AI69" si="144">AE59-AE68</f>
+        <v>8072</v>
+      </c>
+      <c r="AF69" s="15">
+        <f t="shared" si="144"/>
+        <v>8567</v>
+      </c>
+      <c r="AG69" s="10">
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
-      <c r="AE69" s="10">
-        <f t="shared" si="118"/>
+      <c r="AH69" s="10">
+        <f t="shared" si="144"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="AB70" s="159"/>
-    </row>
-    <row r="71" spans="2:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI69" s="10">
+        <f t="shared" si="144"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:35" x14ac:dyDescent="0.25">
+      <c r="AB70" s="130"/>
+    </row>
+    <row r="71" spans="2:35" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B71" s="1" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C71" s="47"/>
       <c r="D71" s="47"/>
@@ -22890,64 +23460,90 @@
         <v>-8.9001098586204752E-2</v>
       </c>
       <c r="V71" s="121">
-        <f t="shared" ref="V71:Z71" si="119">(V41+V42)/(R41+R42)-1</f>
+        <f t="shared" ref="V71:Z71" si="145">(V41+V42)/(R41+R42)-1</f>
         <v>-9.1745703821955127E-2</v>
       </c>
       <c r="W71" s="121">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>7.1093583457684906E-2</v>
       </c>
       <c r="X71" s="121">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>-8.7955365933705232E-2</v>
       </c>
       <c r="Y71" s="121">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>-5.4638954360403114E-3</v>
       </c>
       <c r="Z71" s="121">
-        <f t="shared" si="119"/>
+        <f t="shared" si="145"/>
         <v>-4.4871794871794823E-2</v>
       </c>
       <c r="AA71" s="121">
         <f>(AA41+AA42)/(W41+W42)-1</f>
         <v>-9.3641158324211382E-2</v>
       </c>
-      <c r="AB71" s="160">
+      <c r="AB71" s="131">
         <f>(AB41+AB42)/(X41+X42)-1</f>
         <v>0.21842389348686586</v>
       </c>
       <c r="AC71" s="121">
-        <f t="shared" ref="AC71:AE71" si="120">(AC41+AC42)/(Y41+Y42)-1</f>
+        <f t="shared" ref="AC71:AE71" si="146">(AC41+AC42)/(Y41+Y42)-1</f>
         <v>-2.4453301734353117E-2</v>
       </c>
       <c r="AD71" s="121">
-        <f t="shared" si="120"/>
+        <f>(AD41+AD42)/(Z41+Z42)-1</f>
+        <v>-4.1134444684996718E-2</v>
+      </c>
+      <c r="AE71" s="121">
+        <f t="shared" ref="AE71" si="147">(AE41+AE42)/(AA41+AA42)-1</f>
+        <v>0.43840579710144922</v>
+      </c>
+      <c r="AF71" s="160">
+        <f t="shared" ref="AF71" si="148">(AF41+AF42)/(AB41+AB42)-1</f>
+        <v>0.25753101004134682</v>
+      </c>
+      <c r="AG71" s="121">
+        <f t="shared" ref="AG71" si="149">(AG41+AG42)/(AC41+AC42)-1</f>
         <v>-1</v>
       </c>
-      <c r="AE71" s="121">
-        <f t="shared" si="120"/>
+      <c r="AH71" s="121">
+        <f t="shared" ref="AH71" si="150">(AH41+AH42)/(AD41+AD42)-1</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="89" spans="7:29" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G89" s="148"/>
+      <c r="AI71" s="121">
+        <f t="shared" ref="AI71" si="151">(AI41+AI42)/(AE41+AE42)-1</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="89" spans="8:32" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H89" s="41"/>
-      <c r="AA89" s="148"/>
-      <c r="AC89" s="41"/>
-    </row>
-    <row r="90" spans="7:29" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G90" s="149"/>
+      <c r="AC89" s="159"/>
+      <c r="AF89" s="41"/>
+    </row>
+    <row r="90" spans="8:32" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="H90" s="16"/>
-      <c r="AA90" s="149"/>
-      <c r="AC90" s="16"/>
+      <c r="AC90" s="157"/>
+      <c r="AF90" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="AB37:AB39"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="N30:AE32">
+  <conditionalFormatting sqref="N27:AI27">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N30:AI32">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -22959,19 +23555,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27:AE27">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29:AE29">
+  <conditionalFormatting sqref="V29:AI29">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -23041,7 +23625,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -23052,12 +23636,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H4">
         <v>6</v>
@@ -23074,7 +23658,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H5">
         <v>6</v>
@@ -23091,7 +23675,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -23108,22 +23692,22 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -23133,38 +23717,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{58C3B527-2D5B-414E-8D16-78915C434B11}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D37F5735-5460-414D-B5FC-C83DFBD00ECA}">
-  <dimension ref="A1:AM27"/>
+  <dimension ref="A1:AU27"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB27" sqref="AB27"/>
+      <selection pane="bottomRight" activeCell="AP30" sqref="AP30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23200,7 +23760,7 @@
     <col min="35" max="35" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="118" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" s="118" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="118">
         <v>44562</v>
       </c>
@@ -23315,10 +23875,34 @@
       <c r="AM1" s="118">
         <v>45689</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AN1" s="118">
+        <v>45717</v>
+      </c>
+      <c r="AO1" s="118">
+        <v>45748</v>
+      </c>
+      <c r="AP1" s="118">
+        <v>45778</v>
+      </c>
+      <c r="AQ1" s="118">
+        <v>45809</v>
+      </c>
+      <c r="AR1" s="118">
+        <v>45839</v>
+      </c>
+      <c r="AS1" s="118">
+        <v>45870</v>
+      </c>
+      <c r="AT1" s="118">
+        <v>45901</v>
+      </c>
+      <c r="AU1" s="118">
+        <v>45931</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B2">
         <v>22.7</v>
@@ -23431,15 +24015,39 @@
       <c r="AL2">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM2">
+        <v>25.6</v>
+      </c>
+      <c r="AN2">
+        <v>25.8</v>
+      </c>
+      <c r="AO2">
+        <v>25.9</v>
+      </c>
+      <c r="AP2">
+        <v>25.9</v>
+      </c>
+      <c r="AQ2">
+        <v>26.5</v>
+      </c>
+      <c r="AR2">
+        <v>26.7</v>
+      </c>
+      <c r="AS2">
+        <v>26.7</v>
+      </c>
+      <c r="AT2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B5">
         <v>86.8</v>
@@ -23552,10 +24160,34 @@
       <c r="AL5">
         <v>203.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM5">
+        <v>187.4</v>
+      </c>
+      <c r="AN5">
+        <v>220.6</v>
+      </c>
+      <c r="AO5">
+        <v>232.3</v>
+      </c>
+      <c r="AP5">
+        <v>255.3</v>
+      </c>
+      <c r="AQ5">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="AR5">
+        <v>298</v>
+      </c>
+      <c r="AS5">
+        <v>303.89999999999998</v>
+      </c>
+      <c r="AT5">
+        <v>332.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B6">
         <v>2.9</v>
@@ -23668,15 +24300,39 @@
       <c r="AL6">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM6">
+        <v>4.8</v>
+      </c>
+      <c r="AN6">
+        <v>7.6</v>
+      </c>
+      <c r="AO6">
+        <v>6.8</v>
+      </c>
+      <c r="AP6">
+        <v>3.5</v>
+      </c>
+      <c r="AQ6">
+        <v>3.5</v>
+      </c>
+      <c r="AR6">
+        <v>6.4</v>
+      </c>
+      <c r="AS6">
+        <v>4.8</v>
+      </c>
+      <c r="AT6">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>185</v>
       </c>
       <c r="B9">
         <v>60.5</v>
@@ -23789,10 +24445,34 @@
       <c r="AL9">
         <v>144.69999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM9">
+        <v>142.9</v>
+      </c>
+      <c r="AN9">
+        <v>125.6</v>
+      </c>
+      <c r="AO9">
+        <v>157.80000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>180.5</v>
+      </c>
+      <c r="AQ9">
+        <v>179.1</v>
+      </c>
+      <c r="AR9">
+        <v>209.1</v>
+      </c>
+      <c r="AS9">
+        <v>199.2</v>
+      </c>
+      <c r="AT9">
+        <v>238.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B10">
         <v>78</v>
@@ -23905,10 +24585,34 @@
       <c r="AL10">
         <v>166.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM10">
+        <v>165.6</v>
+      </c>
+      <c r="AN10">
+        <v>167.9</v>
+      </c>
+      <c r="AO10">
+        <v>167.5</v>
+      </c>
+      <c r="AP10">
+        <v>179.8</v>
+      </c>
+      <c r="AQ10">
+        <v>168.1</v>
+      </c>
+      <c r="AR10">
+        <v>195.8</v>
+      </c>
+      <c r="AS10">
+        <v>195.5</v>
+      </c>
+      <c r="AT10">
+        <v>218.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B11">
         <v>9.1</v>
@@ -24021,13 +24725,37 @@
       <c r="AL11">
         <v>20.399999999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM11">
+        <v>14.4</v>
+      </c>
+      <c r="AN11">
+        <v>11.3</v>
+      </c>
+      <c r="AO11">
+        <v>8.6</v>
+      </c>
+      <c r="AP11">
+        <v>11.7</v>
+      </c>
+      <c r="AQ11">
+        <v>8</v>
+      </c>
+      <c r="AR11">
+        <v>16.8</v>
+      </c>
+      <c r="AS11">
+        <v>13.7</v>
+      </c>
+      <c r="AT11">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>75</v>
       </c>
@@ -24142,10 +24870,34 @@
       <c r="AL14">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM14">
+        <v>2.4</v>
+      </c>
+      <c r="AN14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AO14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AP14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AQ14">
+        <v>2.6</v>
+      </c>
+      <c r="AR14">
+        <v>2.7</v>
+      </c>
+      <c r="AS14">
+        <v>2.5</v>
+      </c>
+      <c r="AT14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15">
         <v>0.7</v>
@@ -24258,10 +25010,34 @@
       <c r="AL15">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="AM15">
+        <v>1.2</v>
+      </c>
+      <c r="AN15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AO15">
+        <v>1.2</v>
+      </c>
+      <c r="AP15">
+        <v>1.2</v>
+      </c>
+      <c r="AQ15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AR15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AS15">
+        <v>1.2</v>
+      </c>
+      <c r="AT15">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16">
         <v>0.4</v>
@@ -24374,15 +25150,39 @@
       <c r="AL16">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM16">
+        <v>0.7</v>
+      </c>
+      <c r="AN16">
+        <v>0.6</v>
+      </c>
+      <c r="AO16">
+        <v>0.5</v>
+      </c>
+      <c r="AP16">
+        <v>0.5</v>
+      </c>
+      <c r="AQ16">
+        <v>0.5</v>
+      </c>
+      <c r="AR16">
+        <v>0.7</v>
+      </c>
+      <c r="AS16">
+        <v>0.6</v>
+      </c>
+      <c r="AT16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>192</v>
       </c>
       <c r="B19">
         <v>5.5</v>
@@ -24495,10 +25295,34 @@
       <c r="AL19">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM19">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AN19">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="AO19">
+        <v>8.4</v>
+      </c>
+      <c r="AP19">
+        <v>9</v>
+      </c>
+      <c r="AQ19">
+        <v>9.5</v>
+      </c>
+      <c r="AR19">
+        <v>11.4</v>
+      </c>
+      <c r="AS19">
+        <v>12.5</v>
+      </c>
+      <c r="AT19">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J21">
         <v>1.5</v>
@@ -24587,10 +25411,34 @@
       <c r="AL21">
         <v>25.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM21">
+        <v>25.5</v>
+      </c>
+      <c r="AN21">
+        <v>26.4</v>
+      </c>
+      <c r="AO21">
+        <v>26.9</v>
+      </c>
+      <c r="AP21">
+        <v>28.8</v>
+      </c>
+      <c r="AQ21">
+        <v>30.7</v>
+      </c>
+      <c r="AR21">
+        <v>31.7</v>
+      </c>
+      <c r="AS21">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AT21">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E22">
         <v>1.9</v>
@@ -24694,10 +25542,34 @@
       <c r="AL22">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:38" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AM22">
+        <v>0.7</v>
+      </c>
+      <c r="AN22">
+        <v>1.8</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
+        <v>2</v>
+      </c>
+      <c r="AR22">
+        <v>1.9</v>
+      </c>
+      <c r="AS22">
+        <v>1.8</v>
+      </c>
+      <c r="AT22">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:46" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B23" s="1">
         <v>2.1</v>
@@ -24797,7 +25669,7 @@
         <v>16.8</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" ref="AA23:AL23" si="2">SUM(AA21:AA22)</f>
+        <f t="shared" ref="AA23:AT23" si="2">SUM(AA21:AA22)</f>
         <v>18.099999999999998</v>
       </c>
       <c r="AB23" s="1">
@@ -24844,10 +25716,42 @@
         <f t="shared" si="2"/>
         <v>26.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM23" s="1">
+        <f t="shared" si="2"/>
+        <v>26.2</v>
+      </c>
+      <c r="AN23" s="1">
+        <f t="shared" si="2"/>
+        <v>28.2</v>
+      </c>
+      <c r="AO23" s="1">
+        <f t="shared" si="2"/>
+        <v>28.9</v>
+      </c>
+      <c r="AP23" s="1">
+        <f t="shared" si="2"/>
+        <v>30.8</v>
+      </c>
+      <c r="AQ23" s="1">
+        <f t="shared" si="2"/>
+        <v>32.700000000000003</v>
+      </c>
+      <c r="AR23" s="1">
+        <f t="shared" si="2"/>
+        <v>33.6</v>
+      </c>
+      <c r="AS23" s="1">
+        <f t="shared" si="2"/>
+        <v>34.099999999999994</v>
+      </c>
+      <c r="AT23" s="1">
+        <f t="shared" si="2"/>
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N25">
         <v>13</v>
@@ -24897,10 +25801,34 @@
       <c r="AL25">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AM25">
+        <v>22</v>
+      </c>
+      <c r="AN25">
+        <v>24</v>
+      </c>
+      <c r="AO25">
+        <v>25</v>
+      </c>
+      <c r="AP25">
+        <v>33</v>
+      </c>
+      <c r="AQ25">
+        <v>54</v>
+      </c>
+      <c r="AR25">
+        <v>61</v>
+      </c>
+      <c r="AS25">
+        <v>53</v>
+      </c>
+      <c r="AT25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" s="1">
         <v>17.3</v>
@@ -24978,140 +25906,8 @@
       <c r="AG27" s="1"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:AL2">
-    <cfRule type="colorScale" priority="24">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:AL5">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:AL6">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B9:AL9 AH10:AL10">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B10:AG10">
     <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:AL11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B14:AL14">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B15:AL15">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:AL16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19:AL19">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:AL21">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:AL22">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -25134,7 +25930,139 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:AL23">
+  <conditionalFormatting sqref="B2:AT2">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:AT5">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:AT6">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:AT9 AH10:AT10">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:AT11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:AT14">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:AT15">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:AT16">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:AT19">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:AT21">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:AT22">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:AT23">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -25148,6 +26076,30 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48E03BE-2423-4BDB-9A98-002F9CED8953}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{58C3B527-2D5B-414E-8D16-78915C434B11}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -34097,16 +35049,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="H1" s="131" t="s">
-        <v>90</v>
-      </c>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
-      <c r="L1" s="132"/>
-      <c r="M1" s="133"/>
+      <c r="I1" s="143"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="L1" s="143"/>
+      <c r="M1" s="144"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12">
@@ -34138,22 +35090,22 @@
         <v>7.5165368320226689E-2</v>
       </c>
       <c r="H3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="I3" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="58" t="s">
+      <c r="J3" s="59" t="s">
         <v>92</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="K3" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="L3" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="M3" s="61" t="s">
         <v>95</v>
-      </c>
-      <c r="M3" s="61" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -34565,7 +35517,7 @@
       </c>
       <c r="H15" s="73"/>
       <c r="I15" s="74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J15" s="74">
         <f>COUNTIF(D:D,"&gt;"&amp;H14)</f>
@@ -34609,10 +35561,10 @@
         <f t="shared" si="0"/>
         <v>-2.8130671506351956E-2</v>
       </c>
-      <c r="H17" s="134" t="s">
-        <v>128</v>
-      </c>
-      <c r="I17" s="135"/>
+      <c r="H17" s="145" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" s="146"/>
       <c r="M17" s="77"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
@@ -34626,8 +35578,8 @@
         <f t="shared" si="0"/>
         <v>-7.3170731707317138E-2</v>
       </c>
-      <c r="H18" s="136"/>
-      <c r="I18" s="137"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="148"/>
       <c r="M18" s="77"/>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
@@ -34642,7 +35594,7 @@
         <v>-6.6718995290423799E-2</v>
       </c>
       <c r="H19" s="78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I19" s="114">
         <f>AVERAGE(D:D)</f>
@@ -34662,7 +35614,7 @@
         <v>-1.6216216216216162E-2</v>
       </c>
       <c r="H20" s="78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I20" s="114">
         <f>_xlfn.STDEV.S(D:D)/SQRT(COUNT(D:D))</f>
@@ -34682,7 +35634,7 @@
         <v>0.10778443113772451</v>
       </c>
       <c r="H21" s="78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I21" s="114">
         <f>MEDIAN(D:D)</f>
@@ -34702,7 +35654,7 @@
         <v>-3.4100596760444635E-3</v>
       </c>
       <c r="H22" s="78" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I22" s="114" t="e">
         <f>MODE(D:D)</f>
@@ -34722,7 +35674,7 @@
         <v>0.25858369098712441</v>
       </c>
       <c r="H23" s="78" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I23" s="114">
         <f>_xlfn.STDEV.S(D:D)</f>
@@ -34742,7 +35694,7 @@
         <v>0.12424607961399281</v>
       </c>
       <c r="H24" s="78" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I24" s="114">
         <f>_xlfn.VAR.S(D:D)</f>
@@ -34762,7 +35714,7 @@
         <v>2.3456790123456805E-2</v>
       </c>
       <c r="H25" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I25" s="115">
         <f>KURT(D:D)</f>
@@ -34782,7 +35734,7 @@
         <v>-1.5795868772782606E-2</v>
       </c>
       <c r="H26" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I26" s="115">
         <f>SKEW(D:D)</f>
@@ -34802,7 +35754,7 @@
         <v>-0.15067079463364286</v>
       </c>
       <c r="H27" s="78" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I27" s="114">
         <f>I29-I28</f>
@@ -34822,7 +35774,7 @@
         <v>8.8764044943820064E-2</v>
       </c>
       <c r="H28" s="78" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I28" s="114">
         <f>MIN(D:D)</f>
@@ -34842,7 +35794,7 @@
         <v>-2.5191675794085433E-2</v>
       </c>
       <c r="H29" s="78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" s="114">
         <f>MAX(D:D)</f>
@@ -34862,7 +35814,7 @@
         <v>-1.094091903719896E-3</v>
       </c>
       <c r="H30" s="78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I30" s="115">
         <f>SUM(D:D)</f>
@@ -34882,7 +35834,7 @@
         <v>-7.9556898288016042E-2</v>
       </c>
       <c r="H31" s="79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" s="56">
         <f>COUNT(D:D)</f>
@@ -34917,16 +35869,16 @@
       </c>
       <c r="H33" s="82"/>
       <c r="I33" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="K33" s="83" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="83" t="s">
-        <v>109</v>
-      </c>
-      <c r="K33" s="83" t="s">
+      <c r="L33" s="84" t="s">
         <v>111</v>
-      </c>
-      <c r="L33" s="84" t="s">
-        <v>112</v>
       </c>
       <c r="M33" s="77"/>
     </row>
@@ -34942,7 +35894,7 @@
         <v>-9.0909090909090939E-2</v>
       </c>
       <c r="H34" s="85" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="I34" s="71">
         <f>AVERAGEIF(D:D,"&gt;0")</f>
@@ -34974,7 +35926,7 @@
         <v>-6.5176908752327956E-3</v>
       </c>
       <c r="H35" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I35" s="71">
         <f>AVERAGEIF(D:D,"&lt;0")</f>
@@ -35006,7 +35958,7 @@
         <v>-3.3303330333033232E-2</v>
       </c>
       <c r="H36" s="86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="I36" s="74">
         <v>0</v>
@@ -35055,22 +36007,22 @@
         <v>2.8292682926829293E-2</v>
       </c>
       <c r="H38" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="83" t="s">
         <v>116</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="J38" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="J38" s="83" t="s">
+      <c r="K38" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="K38" s="83" t="s">
+      <c r="L38" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="L38" s="83" t="s">
+      <c r="M38" s="84" t="s">
         <v>120</v>
-      </c>
-      <c r="M38" s="84" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -35200,14 +36152,14 @@
         <f t="shared" si="0"/>
         <v>3.0694668820678395E-2</v>
       </c>
-      <c r="H43" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="140"/>
+      <c r="H43" s="149" t="s">
+        <v>121</v>
+      </c>
+      <c r="I43" s="150"/>
+      <c r="J43" s="150"/>
+      <c r="K43" s="150"/>
+      <c r="L43" s="150"/>
+      <c r="M43" s="151"/>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" s="12">
@@ -35718,7 +36670,7 @@
         <v>-5.5495103373231713E-2</v>
       </c>
       <c r="H60" s="104" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I60" s="105"/>
     </row>
@@ -35734,7 +36686,7 @@
         <v>1.9977802441731418E-2</v>
       </c>
       <c r="H61" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I61" s="107"/>
     </row>
@@ -35763,7 +36715,7 @@
         <v>3.2325338894682032E-2</v>
       </c>
       <c r="H63" s="104" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I63" s="109"/>
     </row>
@@ -35779,7 +36731,7 @@
         <v>-7.3429951690821227E-2</v>
       </c>
       <c r="H64" s="110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I64" s="111">
         <f>I63*(1-I60)</f>
@@ -35798,7 +36750,7 @@
         <v>3.7074148296593057E-2</v>
       </c>
       <c r="H65" s="106" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I65" s="112">
         <f>I63*(1+I61)</f>
